--- a/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/42853_icf_com/Documents/Bulk Upload/Templates/9.8/July Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 4 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{20D6479F-ACC3-482E-A683-3B7513F29B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B45BC06-D7F3-41D6-90B9-446ABA6F9995}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB03B22-41C7-418D-86DE-FF67AB9C7ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,13 +452,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Version: 2022.06.21</t>
+    <t>Q4_2022_Obligations__c</t>
   </si>
   <si>
-    <t>Q3_2022_Obligations__c</t>
+    <t>Q4_2022_Expenditures__c</t>
   </si>
   <si>
-    <t>Q3_2022_Expenditures__c</t>
+    <t>Version: 2022.12.13</t>
   </si>
 </sst>
 </file>
@@ -882,9 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -903,7 +901,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1038,10 +1036,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>30</v>
@@ -34164,6 +34162,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -34172,7 +34176,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -34389,13 +34393,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -34403,7 +34418,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34420,21 +34435,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 4 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\SLFRFBulkUploadTemplates\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB03B22-41C7-418D-86DE-FF67AB9C7ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B3EF18-53AF-4347-98B0-7F9EECDE1880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="4845" windowWidth="25815" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,13 +452,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Q4_2022_Obligations__c</t>
+    <t>Version: 2023.4.18</t>
   </si>
   <si>
-    <t>Q4_2022_Expenditures__c</t>
+    <t>Q1_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Version: 2022.12.13</t>
+    <t>Q1_2023_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -901,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1036,10 +1038,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>30</v>
@@ -34162,21 +34164,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -34393,32 +34380,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34435,4 +34412,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\SLFRFBulkUploadTemplates\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 2 2023 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B3EF18-53AF-4347-98B0-7F9EECDE1880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6606D440-3897-4427-A196-E07A528B1702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4845" windowWidth="25815" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37275" yWindow="-4110" windowWidth="27420" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,13 +452,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Version: 2023.4.18</t>
+    <t>Q2_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Q1_2023_Obligations__c</t>
+    <t>Q2_2023_Expenditures__c</t>
   </si>
   <si>
-    <t>Q1_2023_Expenditures__c</t>
+    <t>Version: 2023.5.17</t>
   </si>
 </sst>
 </file>
@@ -882,9 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -903,7 +901,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1038,10 +1036,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>30</v>
@@ -34164,6 +34162,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -34380,15 +34387,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -34396,6 +34394,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34410,14 +34416,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 2 2023 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\update q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6606D440-3897-4427-A196-E07A528B1702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ACDE87-4285-49AD-9775-48BBE64E49EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37275" yWindow="-4110" windowWidth="27420" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,13 +452,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Q2_2023_Obligations__c</t>
+    <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q2_2023_Expenditures__c</t>
+    <t>Q3_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Version: 2023.5.17</t>
+    <t>Q3_2023_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -882,26 +882,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="4" customWidth="1"/>
-    <col min="2" max="5" width="35.625" style="4" customWidth="1"/>
+    <col min="2" max="5" width="35.59765625" style="4" customWidth="1"/>
     <col min="6" max="7" width="35.5" style="8" customWidth="1"/>
-    <col min="8" max="15" width="35.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="35.625" style="8" customWidth="1"/>
-    <col min="17" max="18" width="35.625" style="4" customWidth="1"/>
+    <col min="8" max="15" width="35.59765625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="35.59765625" style="8" customWidth="1"/>
+    <col min="17" max="18" width="35.59765625" style="4" customWidth="1"/>
     <col min="19" max="19" width="29" style="4" customWidth="1"/>
-    <col min="20" max="20" width="25.125" style="4" customWidth="1"/>
-    <col min="21" max="29" width="25.625" style="4" customWidth="1"/>
-    <col min="30" max="31" width="22.875" style="4" customWidth="1"/>
-    <col min="32" max="16384" width="12.625" style="4"/>
+    <col min="20" max="20" width="25.09765625" style="4" customWidth="1"/>
+    <col min="21" max="29" width="25.59765625" style="4" customWidth="1"/>
+    <col min="30" max="31" width="22.8984375" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="12.59765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -934,7 +936,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>72</v>
       </c>
@@ -969,7 +971,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" ht="246.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="246.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
@@ -1004,7 +1006,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,10 +1038,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>30</v>
@@ -1099,7 +1101,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1416,7 +1418,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1449,7 +1451,7 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="3"/>
@@ -1482,7 +1484,7 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
@@ -1515,7 +1517,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1548,7 +1550,7 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
     </row>
-    <row r="13" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1581,7 +1583,7 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1614,7 +1616,7 @@
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
     </row>
-    <row r="15" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1647,7 +1649,7 @@
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
     </row>
-    <row r="16" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1680,7 +1682,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1713,7 +1715,7 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1746,7 +1748,7 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1779,7 +1781,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1812,7 +1814,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1845,7 +1847,7 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1878,7 +1880,7 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1911,7 +1913,7 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1944,7 +1946,7 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1977,7 +1979,7 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2010,7 +2012,7 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2043,7 +2045,7 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2076,7 +2078,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2109,7 +2111,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2142,7 +2144,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2175,7 +2177,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2208,7 +2210,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2241,7 +2243,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2274,7 +2276,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2307,7 +2309,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2340,7 +2342,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2373,7 +2375,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2406,7 +2408,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2439,7 +2441,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2472,7 +2474,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2505,7 +2507,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2538,7 +2540,7 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
     </row>
-    <row r="43" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2571,7 +2573,7 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
     </row>
-    <row r="44" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2604,7 +2606,7 @@
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2637,7 +2639,7 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2670,7 +2672,7 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2703,7 +2705,7 @@
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2736,7 +2738,7 @@
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2769,7 +2771,7 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2802,7 +2804,7 @@
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2835,7 +2837,7 @@
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2868,7 +2870,7 @@
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2901,7 +2903,7 @@
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2934,7 +2936,7 @@
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2967,7 +2969,7 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3000,7 +3002,7 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
     </row>
-    <row r="57" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3033,7 +3035,7 @@
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
     </row>
-    <row r="58" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3066,7 +3068,7 @@
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
     </row>
-    <row r="59" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3099,7 +3101,7 @@
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
     </row>
-    <row r="60" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3132,7 +3134,7 @@
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
     </row>
-    <row r="61" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3165,7 +3167,7 @@
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
     </row>
-    <row r="62" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3198,7 +3200,7 @@
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
     </row>
-    <row r="63" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3231,7 +3233,7 @@
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
     </row>
-    <row r="64" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3264,7 +3266,7 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
     </row>
-    <row r="65" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3297,7 +3299,7 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
     </row>
-    <row r="66" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3330,7 +3332,7 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3363,7 +3365,7 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
     </row>
-    <row r="68" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3396,7 +3398,7 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="69" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3429,7 +3431,7 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
-    <row r="70" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3462,7 +3464,7 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
     </row>
-    <row r="71" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3495,7 +3497,7 @@
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
     </row>
-    <row r="72" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3528,7 +3530,7 @@
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
     </row>
-    <row r="73" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3561,7 +3563,7 @@
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
     </row>
-    <row r="74" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3594,7 +3596,7 @@
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
     </row>
-    <row r="75" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3627,7 +3629,7 @@
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
     </row>
-    <row r="76" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3660,7 +3662,7 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3693,7 +3695,7 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
     </row>
-    <row r="78" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3726,7 +3728,7 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
     </row>
-    <row r="79" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3759,7 +3761,7 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
     </row>
-    <row r="80" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3792,7 +3794,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3825,7 +3827,7 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
     </row>
-    <row r="82" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3858,7 +3860,7 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
     </row>
-    <row r="83" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3891,7 +3893,7 @@
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
     </row>
-    <row r="84" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3924,7 +3926,7 @@
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
     </row>
-    <row r="85" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3957,7 +3959,7 @@
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
     </row>
-    <row r="86" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3990,7 +3992,7 @@
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
     </row>
-    <row r="87" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4023,7 +4025,7 @@
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
     </row>
-    <row r="88" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4056,7 +4058,7 @@
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
     </row>
-    <row r="89" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4089,7 +4091,7 @@
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
     </row>
-    <row r="90" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4122,7 +4124,7 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
     </row>
-    <row r="91" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4155,7 +4157,7 @@
       <c r="AD91" s="3"/>
       <c r="AE91" s="3"/>
     </row>
-    <row r="92" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4188,7 +4190,7 @@
       <c r="AD92" s="3"/>
       <c r="AE92" s="3"/>
     </row>
-    <row r="93" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4221,7 +4223,7 @@
       <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
     </row>
-    <row r="94" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4254,7 +4256,7 @@
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
     </row>
-    <row r="95" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4287,7 +4289,7 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
     </row>
-    <row r="96" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4320,7 +4322,7 @@
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
     </row>
-    <row r="97" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4353,7 +4355,7 @@
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
     </row>
-    <row r="98" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4386,7 +4388,7 @@
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
     </row>
-    <row r="99" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4419,7 +4421,7 @@
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
     </row>
-    <row r="100" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4452,7 +4454,7 @@
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
     </row>
-    <row r="101" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4485,7 +4487,7 @@
       <c r="AD101" s="3"/>
       <c r="AE101" s="3"/>
     </row>
-    <row r="102" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4518,7 +4520,7 @@
       <c r="AD102" s="3"/>
       <c r="AE102" s="3"/>
     </row>
-    <row r="103" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4551,7 +4553,7 @@
       <c r="AD103" s="3"/>
       <c r="AE103" s="3"/>
     </row>
-    <row r="104" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4584,7 +4586,7 @@
       <c r="AD104" s="3"/>
       <c r="AE104" s="3"/>
     </row>
-    <row r="105" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4617,7 +4619,7 @@
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
     </row>
-    <row r="106" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4650,7 +4652,7 @@
       <c r="AD106" s="3"/>
       <c r="AE106" s="3"/>
     </row>
-    <row r="107" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4683,7 +4685,7 @@
       <c r="AD107" s="3"/>
       <c r="AE107" s="3"/>
     </row>
-    <row r="108" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4716,7 +4718,7 @@
       <c r="AD108" s="3"/>
       <c r="AE108" s="3"/>
     </row>
-    <row r="109" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4749,7 +4751,7 @@
       <c r="AD109" s="3"/>
       <c r="AE109" s="3"/>
     </row>
-    <row r="110" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4782,7 +4784,7 @@
       <c r="AD110" s="3"/>
       <c r="AE110" s="3"/>
     </row>
-    <row r="111" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4815,7 +4817,7 @@
       <c r="AD111" s="3"/>
       <c r="AE111" s="3"/>
     </row>
-    <row r="112" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4848,7 +4850,7 @@
       <c r="AD112" s="3"/>
       <c r="AE112" s="3"/>
     </row>
-    <row r="113" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4881,7 +4883,7 @@
       <c r="AD113" s="3"/>
       <c r="AE113" s="3"/>
     </row>
-    <row r="114" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4914,7 +4916,7 @@
       <c r="AD114" s="3"/>
       <c r="AE114" s="3"/>
     </row>
-    <row r="115" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4947,7 +4949,7 @@
       <c r="AD115" s="3"/>
       <c r="AE115" s="3"/>
     </row>
-    <row r="116" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4980,7 +4982,7 @@
       <c r="AD116" s="3"/>
       <c r="AE116" s="3"/>
     </row>
-    <row r="117" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5013,7 +5015,7 @@
       <c r="AD117" s="3"/>
       <c r="AE117" s="3"/>
     </row>
-    <row r="118" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5046,7 +5048,7 @@
       <c r="AD118" s="3"/>
       <c r="AE118" s="3"/>
     </row>
-    <row r="119" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5079,7 +5081,7 @@
       <c r="AD119" s="3"/>
       <c r="AE119" s="3"/>
     </row>
-    <row r="120" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5112,7 +5114,7 @@
       <c r="AD120" s="3"/>
       <c r="AE120" s="3"/>
     </row>
-    <row r="121" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5145,7 +5147,7 @@
       <c r="AD121" s="3"/>
       <c r="AE121" s="3"/>
     </row>
-    <row r="122" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5178,7 +5180,7 @@
       <c r="AD122" s="3"/>
       <c r="AE122" s="3"/>
     </row>
-    <row r="123" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5211,7 +5213,7 @@
       <c r="AD123" s="3"/>
       <c r="AE123" s="3"/>
     </row>
-    <row r="124" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5244,7 +5246,7 @@
       <c r="AD124" s="3"/>
       <c r="AE124" s="3"/>
     </row>
-    <row r="125" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5277,7 +5279,7 @@
       <c r="AD125" s="3"/>
       <c r="AE125" s="3"/>
     </row>
-    <row r="126" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5310,7 +5312,7 @@
       <c r="AD126" s="3"/>
       <c r="AE126" s="3"/>
     </row>
-    <row r="127" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5343,7 +5345,7 @@
       <c r="AD127" s="3"/>
       <c r="AE127" s="3"/>
     </row>
-    <row r="128" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5376,7 +5378,7 @@
       <c r="AD128" s="3"/>
       <c r="AE128" s="3"/>
     </row>
-    <row r="129" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5409,7 +5411,7 @@
       <c r="AD129" s="3"/>
       <c r="AE129" s="3"/>
     </row>
-    <row r="130" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5442,7 +5444,7 @@
       <c r="AD130" s="3"/>
       <c r="AE130" s="3"/>
     </row>
-    <row r="131" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5475,7 +5477,7 @@
       <c r="AD131" s="3"/>
       <c r="AE131" s="3"/>
     </row>
-    <row r="132" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5508,7 +5510,7 @@
       <c r="AD132" s="3"/>
       <c r="AE132" s="3"/>
     </row>
-    <row r="133" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5541,7 +5543,7 @@
       <c r="AD133" s="3"/>
       <c r="AE133" s="3"/>
     </row>
-    <row r="134" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5574,7 +5576,7 @@
       <c r="AD134" s="3"/>
       <c r="AE134" s="3"/>
     </row>
-    <row r="135" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5607,7 +5609,7 @@
       <c r="AD135" s="3"/>
       <c r="AE135" s="3"/>
     </row>
-    <row r="136" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5640,7 +5642,7 @@
       <c r="AD136" s="3"/>
       <c r="AE136" s="3"/>
     </row>
-    <row r="137" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5673,7 +5675,7 @@
       <c r="AD137" s="3"/>
       <c r="AE137" s="3"/>
     </row>
-    <row r="138" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5706,7 +5708,7 @@
       <c r="AD138" s="3"/>
       <c r="AE138" s="3"/>
     </row>
-    <row r="139" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5739,7 +5741,7 @@
       <c r="AD139" s="3"/>
       <c r="AE139" s="3"/>
     </row>
-    <row r="140" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5772,7 +5774,7 @@
       <c r="AD140" s="3"/>
       <c r="AE140" s="3"/>
     </row>
-    <row r="141" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5805,7 +5807,7 @@
       <c r="AD141" s="3"/>
       <c r="AE141" s="3"/>
     </row>
-    <row r="142" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5838,7 +5840,7 @@
       <c r="AD142" s="3"/>
       <c r="AE142" s="3"/>
     </row>
-    <row r="143" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5871,7 +5873,7 @@
       <c r="AD143" s="3"/>
       <c r="AE143" s="3"/>
     </row>
-    <row r="144" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5904,7 +5906,7 @@
       <c r="AD144" s="3"/>
       <c r="AE144" s="3"/>
     </row>
-    <row r="145" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5937,7 +5939,7 @@
       <c r="AD145" s="3"/>
       <c r="AE145" s="3"/>
     </row>
-    <row r="146" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5970,7 +5972,7 @@
       <c r="AD146" s="3"/>
       <c r="AE146" s="3"/>
     </row>
-    <row r="147" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -6003,7 +6005,7 @@
       <c r="AD147" s="3"/>
       <c r="AE147" s="3"/>
     </row>
-    <row r="148" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -6036,7 +6038,7 @@
       <c r="AD148" s="3"/>
       <c r="AE148" s="3"/>
     </row>
-    <row r="149" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -6069,7 +6071,7 @@
       <c r="AD149" s="3"/>
       <c r="AE149" s="3"/>
     </row>
-    <row r="150" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -6102,7 +6104,7 @@
       <c r="AD150" s="3"/>
       <c r="AE150" s="3"/>
     </row>
-    <row r="151" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -6135,7 +6137,7 @@
       <c r="AD151" s="3"/>
       <c r="AE151" s="3"/>
     </row>
-    <row r="152" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -6168,7 +6170,7 @@
       <c r="AD152" s="3"/>
       <c r="AE152" s="3"/>
     </row>
-    <row r="153" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -6201,7 +6203,7 @@
       <c r="AD153" s="3"/>
       <c r="AE153" s="3"/>
     </row>
-    <row r="154" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -6234,7 +6236,7 @@
       <c r="AD154" s="3"/>
       <c r="AE154" s="3"/>
     </row>
-    <row r="155" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -6267,7 +6269,7 @@
       <c r="AD155" s="3"/>
       <c r="AE155" s="3"/>
     </row>
-    <row r="156" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -6300,7 +6302,7 @@
       <c r="AD156" s="3"/>
       <c r="AE156" s="3"/>
     </row>
-    <row r="157" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -6333,7 +6335,7 @@
       <c r="AD157" s="3"/>
       <c r="AE157" s="3"/>
     </row>
-    <row r="158" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -6366,7 +6368,7 @@
       <c r="AD158" s="3"/>
       <c r="AE158" s="3"/>
     </row>
-    <row r="159" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -6399,7 +6401,7 @@
       <c r="AD159" s="3"/>
       <c r="AE159" s="3"/>
     </row>
-    <row r="160" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -6432,7 +6434,7 @@
       <c r="AD160" s="3"/>
       <c r="AE160" s="3"/>
     </row>
-    <row r="161" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -6465,7 +6467,7 @@
       <c r="AD161" s="3"/>
       <c r="AE161" s="3"/>
     </row>
-    <row r="162" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -6498,7 +6500,7 @@
       <c r="AD162" s="3"/>
       <c r="AE162" s="3"/>
     </row>
-    <row r="163" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -6531,7 +6533,7 @@
       <c r="AD163" s="3"/>
       <c r="AE163" s="3"/>
     </row>
-    <row r="164" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6564,7 +6566,7 @@
       <c r="AD164" s="3"/>
       <c r="AE164" s="3"/>
     </row>
-    <row r="165" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -6597,7 +6599,7 @@
       <c r="AD165" s="3"/>
       <c r="AE165" s="3"/>
     </row>
-    <row r="166" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6630,7 +6632,7 @@
       <c r="AD166" s="3"/>
       <c r="AE166" s="3"/>
     </row>
-    <row r="167" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6663,7 +6665,7 @@
       <c r="AD167" s="3"/>
       <c r="AE167" s="3"/>
     </row>
-    <row r="168" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6696,7 +6698,7 @@
       <c r="AD168" s="3"/>
       <c r="AE168" s="3"/>
     </row>
-    <row r="169" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6729,7 +6731,7 @@
       <c r="AD169" s="3"/>
       <c r="AE169" s="3"/>
     </row>
-    <row r="170" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6762,7 +6764,7 @@
       <c r="AD170" s="3"/>
       <c r="AE170" s="3"/>
     </row>
-    <row r="171" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6795,7 +6797,7 @@
       <c r="AD171" s="3"/>
       <c r="AE171" s="3"/>
     </row>
-    <row r="172" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -6828,7 +6830,7 @@
       <c r="AD172" s="3"/>
       <c r="AE172" s="3"/>
     </row>
-    <row r="173" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -6861,7 +6863,7 @@
       <c r="AD173" s="3"/>
       <c r="AE173" s="3"/>
     </row>
-    <row r="174" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -6894,7 +6896,7 @@
       <c r="AD174" s="3"/>
       <c r="AE174" s="3"/>
     </row>
-    <row r="175" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -6927,7 +6929,7 @@
       <c r="AD175" s="3"/>
       <c r="AE175" s="3"/>
     </row>
-    <row r="176" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -6960,7 +6962,7 @@
       <c r="AD176" s="3"/>
       <c r="AE176" s="3"/>
     </row>
-    <row r="177" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6993,7 +6995,7 @@
       <c r="AD177" s="3"/>
       <c r="AE177" s="3"/>
     </row>
-    <row r="178" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -7026,7 +7028,7 @@
       <c r="AD178" s="3"/>
       <c r="AE178" s="3"/>
     </row>
-    <row r="179" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -7059,7 +7061,7 @@
       <c r="AD179" s="3"/>
       <c r="AE179" s="3"/>
     </row>
-    <row r="180" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -7092,7 +7094,7 @@
       <c r="AD180" s="3"/>
       <c r="AE180" s="3"/>
     </row>
-    <row r="181" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -7125,7 +7127,7 @@
       <c r="AD181" s="3"/>
       <c r="AE181" s="3"/>
     </row>
-    <row r="182" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -7158,7 +7160,7 @@
       <c r="AD182" s="3"/>
       <c r="AE182" s="3"/>
     </row>
-    <row r="183" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -7191,7 +7193,7 @@
       <c r="AD183" s="3"/>
       <c r="AE183" s="3"/>
     </row>
-    <row r="184" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -7224,7 +7226,7 @@
       <c r="AD184" s="3"/>
       <c r="AE184" s="3"/>
     </row>
-    <row r="185" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -7257,7 +7259,7 @@
       <c r="AD185" s="3"/>
       <c r="AE185" s="3"/>
     </row>
-    <row r="186" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -7290,7 +7292,7 @@
       <c r="AD186" s="3"/>
       <c r="AE186" s="3"/>
     </row>
-    <row r="187" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -7323,7 +7325,7 @@
       <c r="AD187" s="3"/>
       <c r="AE187" s="3"/>
     </row>
-    <row r="188" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -7356,7 +7358,7 @@
       <c r="AD188" s="3"/>
       <c r="AE188" s="3"/>
     </row>
-    <row r="189" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -7389,7 +7391,7 @@
       <c r="AD189" s="3"/>
       <c r="AE189" s="3"/>
     </row>
-    <row r="190" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -7422,7 +7424,7 @@
       <c r="AD190" s="3"/>
       <c r="AE190" s="3"/>
     </row>
-    <row r="191" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -7455,7 +7457,7 @@
       <c r="AD191" s="3"/>
       <c r="AE191" s="3"/>
     </row>
-    <row r="192" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -7488,7 +7490,7 @@
       <c r="AD192" s="3"/>
       <c r="AE192" s="3"/>
     </row>
-    <row r="193" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -7521,7 +7523,7 @@
       <c r="AD193" s="3"/>
       <c r="AE193" s="3"/>
     </row>
-    <row r="194" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -7554,7 +7556,7 @@
       <c r="AD194" s="3"/>
       <c r="AE194" s="3"/>
     </row>
-    <row r="195" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -7587,7 +7589,7 @@
       <c r="AD195" s="3"/>
       <c r="AE195" s="3"/>
     </row>
-    <row r="196" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -7620,7 +7622,7 @@
       <c r="AD196" s="3"/>
       <c r="AE196" s="3"/>
     </row>
-    <row r="197" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -7653,7 +7655,7 @@
       <c r="AD197" s="3"/>
       <c r="AE197" s="3"/>
     </row>
-    <row r="198" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -7686,7 +7688,7 @@
       <c r="AD198" s="3"/>
       <c r="AE198" s="3"/>
     </row>
-    <row r="199" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -7719,7 +7721,7 @@
       <c r="AD199" s="3"/>
       <c r="AE199" s="3"/>
     </row>
-    <row r="200" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -7752,7 +7754,7 @@
       <c r="AD200" s="3"/>
       <c r="AE200" s="3"/>
     </row>
-    <row r="201" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -7785,7 +7787,7 @@
       <c r="AD201" s="3"/>
       <c r="AE201" s="3"/>
     </row>
-    <row r="202" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -7818,7 +7820,7 @@
       <c r="AD202" s="3"/>
       <c r="AE202" s="3"/>
     </row>
-    <row r="203" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -7851,7 +7853,7 @@
       <c r="AD203" s="3"/>
       <c r="AE203" s="3"/>
     </row>
-    <row r="204" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -7884,7 +7886,7 @@
       <c r="AD204" s="3"/>
       <c r="AE204" s="3"/>
     </row>
-    <row r="205" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -7917,7 +7919,7 @@
       <c r="AD205" s="3"/>
       <c r="AE205" s="3"/>
     </row>
-    <row r="206" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -7950,7 +7952,7 @@
       <c r="AD206" s="3"/>
       <c r="AE206" s="3"/>
     </row>
-    <row r="207" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -7983,7 +7985,7 @@
       <c r="AD207" s="3"/>
       <c r="AE207" s="3"/>
     </row>
-    <row r="208" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -8016,7 +8018,7 @@
       <c r="AD208" s="3"/>
       <c r="AE208" s="3"/>
     </row>
-    <row r="209" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -8049,7 +8051,7 @@
       <c r="AD209" s="3"/>
       <c r="AE209" s="3"/>
     </row>
-    <row r="210" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -8082,7 +8084,7 @@
       <c r="AD210" s="3"/>
       <c r="AE210" s="3"/>
     </row>
-    <row r="211" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -8115,7 +8117,7 @@
       <c r="AD211" s="3"/>
       <c r="AE211" s="3"/>
     </row>
-    <row r="212" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -8148,7 +8150,7 @@
       <c r="AD212" s="3"/>
       <c r="AE212" s="3"/>
     </row>
-    <row r="213" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -8181,7 +8183,7 @@
       <c r="AD213" s="3"/>
       <c r="AE213" s="3"/>
     </row>
-    <row r="214" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -8214,7 +8216,7 @@
       <c r="AD214" s="3"/>
       <c r="AE214" s="3"/>
     </row>
-    <row r="215" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -8247,7 +8249,7 @@
       <c r="AD215" s="3"/>
       <c r="AE215" s="3"/>
     </row>
-    <row r="216" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -8280,7 +8282,7 @@
       <c r="AD216" s="3"/>
       <c r="AE216" s="3"/>
     </row>
-    <row r="217" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -8313,7 +8315,7 @@
       <c r="AD217" s="3"/>
       <c r="AE217" s="3"/>
     </row>
-    <row r="218" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -8346,7 +8348,7 @@
       <c r="AD218" s="3"/>
       <c r="AE218" s="3"/>
     </row>
-    <row r="219" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -8379,7 +8381,7 @@
       <c r="AD219" s="3"/>
       <c r="AE219" s="3"/>
     </row>
-    <row r="220" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -8412,7 +8414,7 @@
       <c r="AD220" s="3"/>
       <c r="AE220" s="3"/>
     </row>
-    <row r="221" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -8445,7 +8447,7 @@
       <c r="AD221" s="3"/>
       <c r="AE221" s="3"/>
     </row>
-    <row r="222" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -8478,7 +8480,7 @@
       <c r="AD222" s="3"/>
       <c r="AE222" s="3"/>
     </row>
-    <row r="223" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -8511,7 +8513,7 @@
       <c r="AD223" s="3"/>
       <c r="AE223" s="3"/>
     </row>
-    <row r="224" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -8544,7 +8546,7 @@
       <c r="AD224" s="3"/>
       <c r="AE224" s="3"/>
     </row>
-    <row r="225" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -8577,7 +8579,7 @@
       <c r="AD225" s="3"/>
       <c r="AE225" s="3"/>
     </row>
-    <row r="226" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -8610,7 +8612,7 @@
       <c r="AD226" s="3"/>
       <c r="AE226" s="3"/>
     </row>
-    <row r="227" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -8643,7 +8645,7 @@
       <c r="AD227" s="3"/>
       <c r="AE227" s="3"/>
     </row>
-    <row r="228" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -8676,7 +8678,7 @@
       <c r="AD228" s="3"/>
       <c r="AE228" s="3"/>
     </row>
-    <row r="229" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -8709,7 +8711,7 @@
       <c r="AD229" s="3"/>
       <c r="AE229" s="3"/>
     </row>
-    <row r="230" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -8742,7 +8744,7 @@
       <c r="AD230" s="3"/>
       <c r="AE230" s="3"/>
     </row>
-    <row r="231" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -8775,7 +8777,7 @@
       <c r="AD231" s="3"/>
       <c r="AE231" s="3"/>
     </row>
-    <row r="232" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -8808,7 +8810,7 @@
       <c r="AD232" s="3"/>
       <c r="AE232" s="3"/>
     </row>
-    <row r="233" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -8841,7 +8843,7 @@
       <c r="AD233" s="3"/>
       <c r="AE233" s="3"/>
     </row>
-    <row r="234" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -8874,7 +8876,7 @@
       <c r="AD234" s="3"/>
       <c r="AE234" s="3"/>
     </row>
-    <row r="235" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -8907,7 +8909,7 @@
       <c r="AD235" s="3"/>
       <c r="AE235" s="3"/>
     </row>
-    <row r="236" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -8940,7 +8942,7 @@
       <c r="AD236" s="3"/>
       <c r="AE236" s="3"/>
     </row>
-    <row r="237" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -8973,7 +8975,7 @@
       <c r="AD237" s="3"/>
       <c r="AE237" s="3"/>
     </row>
-    <row r="238" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -9006,7 +9008,7 @@
       <c r="AD238" s="3"/>
       <c r="AE238" s="3"/>
     </row>
-    <row r="239" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -9039,7 +9041,7 @@
       <c r="AD239" s="3"/>
       <c r="AE239" s="3"/>
     </row>
-    <row r="240" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -9072,7 +9074,7 @@
       <c r="AD240" s="3"/>
       <c r="AE240" s="3"/>
     </row>
-    <row r="241" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -9105,7 +9107,7 @@
       <c r="AD241" s="3"/>
       <c r="AE241" s="3"/>
     </row>
-    <row r="242" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -9138,7 +9140,7 @@
       <c r="AD242" s="3"/>
       <c r="AE242" s="3"/>
     </row>
-    <row r="243" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -9171,7 +9173,7 @@
       <c r="AD243" s="3"/>
       <c r="AE243" s="3"/>
     </row>
-    <row r="244" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -9204,7 +9206,7 @@
       <c r="AD244" s="3"/>
       <c r="AE244" s="3"/>
     </row>
-    <row r="245" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -9237,7 +9239,7 @@
       <c r="AD245" s="3"/>
       <c r="AE245" s="3"/>
     </row>
-    <row r="246" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -9270,7 +9272,7 @@
       <c r="AD246" s="3"/>
       <c r="AE246" s="3"/>
     </row>
-    <row r="247" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -9303,7 +9305,7 @@
       <c r="AD247" s="3"/>
       <c r="AE247" s="3"/>
     </row>
-    <row r="248" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -9336,7 +9338,7 @@
       <c r="AD248" s="3"/>
       <c r="AE248" s="3"/>
     </row>
-    <row r="249" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -9369,7 +9371,7 @@
       <c r="AD249" s="3"/>
       <c r="AE249" s="3"/>
     </row>
-    <row r="250" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -9402,7 +9404,7 @@
       <c r="AD250" s="3"/>
       <c r="AE250" s="3"/>
     </row>
-    <row r="251" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -9435,7 +9437,7 @@
       <c r="AD251" s="3"/>
       <c r="AE251" s="3"/>
     </row>
-    <row r="252" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -9468,7 +9470,7 @@
       <c r="AD252" s="3"/>
       <c r="AE252" s="3"/>
     </row>
-    <row r="253" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -9501,7 +9503,7 @@
       <c r="AD253" s="3"/>
       <c r="AE253" s="3"/>
     </row>
-    <row r="254" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -9534,7 +9536,7 @@
       <c r="AD254" s="3"/>
       <c r="AE254" s="3"/>
     </row>
-    <row r="255" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -9567,7 +9569,7 @@
       <c r="AD255" s="3"/>
       <c r="AE255" s="3"/>
     </row>
-    <row r="256" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -9600,7 +9602,7 @@
       <c r="AD256" s="3"/>
       <c r="AE256" s="3"/>
     </row>
-    <row r="257" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -9633,7 +9635,7 @@
       <c r="AD257" s="3"/>
       <c r="AE257" s="3"/>
     </row>
-    <row r="258" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -9666,7 +9668,7 @@
       <c r="AD258" s="3"/>
       <c r="AE258" s="3"/>
     </row>
-    <row r="259" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -9699,7 +9701,7 @@
       <c r="AD259" s="3"/>
       <c r="AE259" s="3"/>
     </row>
-    <row r="260" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -9732,7 +9734,7 @@
       <c r="AD260" s="3"/>
       <c r="AE260" s="3"/>
     </row>
-    <row r="261" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -9765,7 +9767,7 @@
       <c r="AD261" s="3"/>
       <c r="AE261" s="3"/>
     </row>
-    <row r="262" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -9798,7 +9800,7 @@
       <c r="AD262" s="3"/>
       <c r="AE262" s="3"/>
     </row>
-    <row r="263" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -9831,7 +9833,7 @@
       <c r="AD263" s="3"/>
       <c r="AE263" s="3"/>
     </row>
-    <row r="264" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -9864,7 +9866,7 @@
       <c r="AD264" s="3"/>
       <c r="AE264" s="3"/>
     </row>
-    <row r="265" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -9897,7 +9899,7 @@
       <c r="AD265" s="3"/>
       <c r="AE265" s="3"/>
     </row>
-    <row r="266" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -9930,7 +9932,7 @@
       <c r="AD266" s="3"/>
       <c r="AE266" s="3"/>
     </row>
-    <row r="267" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -9963,7 +9965,7 @@
       <c r="AD267" s="3"/>
       <c r="AE267" s="3"/>
     </row>
-    <row r="268" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -9996,7 +9998,7 @@
       <c r="AD268" s="3"/>
       <c r="AE268" s="3"/>
     </row>
-    <row r="269" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -10029,7 +10031,7 @@
       <c r="AD269" s="3"/>
       <c r="AE269" s="3"/>
     </row>
-    <row r="270" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -10062,7 +10064,7 @@
       <c r="AD270" s="3"/>
       <c r="AE270" s="3"/>
     </row>
-    <row r="271" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -10095,7 +10097,7 @@
       <c r="AD271" s="3"/>
       <c r="AE271" s="3"/>
     </row>
-    <row r="272" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -10128,7 +10130,7 @@
       <c r="AD272" s="3"/>
       <c r="AE272" s="3"/>
     </row>
-    <row r="273" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -10161,7 +10163,7 @@
       <c r="AD273" s="3"/>
       <c r="AE273" s="3"/>
     </row>
-    <row r="274" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -10194,7 +10196,7 @@
       <c r="AD274" s="3"/>
       <c r="AE274" s="3"/>
     </row>
-    <row r="275" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -10227,7 +10229,7 @@
       <c r="AD275" s="3"/>
       <c r="AE275" s="3"/>
     </row>
-    <row r="276" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -10260,7 +10262,7 @@
       <c r="AD276" s="3"/>
       <c r="AE276" s="3"/>
     </row>
-    <row r="277" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -10293,7 +10295,7 @@
       <c r="AD277" s="3"/>
       <c r="AE277" s="3"/>
     </row>
-    <row r="278" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -10326,7 +10328,7 @@
       <c r="AD278" s="3"/>
       <c r="AE278" s="3"/>
     </row>
-    <row r="279" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -10359,7 +10361,7 @@
       <c r="AD279" s="3"/>
       <c r="AE279" s="3"/>
     </row>
-    <row r="280" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -10392,7 +10394,7 @@
       <c r="AD280" s="3"/>
       <c r="AE280" s="3"/>
     </row>
-    <row r="281" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -10425,7 +10427,7 @@
       <c r="AD281" s="3"/>
       <c r="AE281" s="3"/>
     </row>
-    <row r="282" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -10458,7 +10460,7 @@
       <c r="AD282" s="3"/>
       <c r="AE282" s="3"/>
     </row>
-    <row r="283" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -10491,7 +10493,7 @@
       <c r="AD283" s="3"/>
       <c r="AE283" s="3"/>
     </row>
-    <row r="284" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -10524,7 +10526,7 @@
       <c r="AD284" s="3"/>
       <c r="AE284" s="3"/>
     </row>
-    <row r="285" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -10557,7 +10559,7 @@
       <c r="AD285" s="3"/>
       <c r="AE285" s="3"/>
     </row>
-    <row r="286" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -10590,7 +10592,7 @@
       <c r="AD286" s="3"/>
       <c r="AE286" s="3"/>
     </row>
-    <row r="287" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -10623,7 +10625,7 @@
       <c r="AD287" s="3"/>
       <c r="AE287" s="3"/>
     </row>
-    <row r="288" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -10656,7 +10658,7 @@
       <c r="AD288" s="3"/>
       <c r="AE288" s="3"/>
     </row>
-    <row r="289" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -10689,7 +10691,7 @@
       <c r="AD289" s="3"/>
       <c r="AE289" s="3"/>
     </row>
-    <row r="290" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -10722,7 +10724,7 @@
       <c r="AD290" s="3"/>
       <c r="AE290" s="3"/>
     </row>
-    <row r="291" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -10755,7 +10757,7 @@
       <c r="AD291" s="3"/>
       <c r="AE291" s="3"/>
     </row>
-    <row r="292" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -10788,7 +10790,7 @@
       <c r="AD292" s="3"/>
       <c r="AE292" s="3"/>
     </row>
-    <row r="293" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -10821,7 +10823,7 @@
       <c r="AD293" s="3"/>
       <c r="AE293" s="3"/>
     </row>
-    <row r="294" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -10854,7 +10856,7 @@
       <c r="AD294" s="3"/>
       <c r="AE294" s="3"/>
     </row>
-    <row r="295" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -10887,7 +10889,7 @@
       <c r="AD295" s="3"/>
       <c r="AE295" s="3"/>
     </row>
-    <row r="296" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -10920,7 +10922,7 @@
       <c r="AD296" s="3"/>
       <c r="AE296" s="3"/>
     </row>
-    <row r="297" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -10953,7 +10955,7 @@
       <c r="AD297" s="3"/>
       <c r="AE297" s="3"/>
     </row>
-    <row r="298" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -10986,7 +10988,7 @@
       <c r="AD298" s="3"/>
       <c r="AE298" s="3"/>
     </row>
-    <row r="299" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -11019,7 +11021,7 @@
       <c r="AD299" s="3"/>
       <c r="AE299" s="3"/>
     </row>
-    <row r="300" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -11052,7 +11054,7 @@
       <c r="AD300" s="3"/>
       <c r="AE300" s="3"/>
     </row>
-    <row r="301" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -11085,7 +11087,7 @@
       <c r="AD301" s="3"/>
       <c r="AE301" s="3"/>
     </row>
-    <row r="302" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -11118,7 +11120,7 @@
       <c r="AD302" s="3"/>
       <c r="AE302" s="3"/>
     </row>
-    <row r="303" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -11151,7 +11153,7 @@
       <c r="AD303" s="3"/>
       <c r="AE303" s="3"/>
     </row>
-    <row r="304" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -11184,7 +11186,7 @@
       <c r="AD304" s="3"/>
       <c r="AE304" s="3"/>
     </row>
-    <row r="305" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -11217,7 +11219,7 @@
       <c r="AD305" s="3"/>
       <c r="AE305" s="3"/>
     </row>
-    <row r="306" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -11250,7 +11252,7 @@
       <c r="AD306" s="3"/>
       <c r="AE306" s="3"/>
     </row>
-    <row r="307" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -11283,7 +11285,7 @@
       <c r="AD307" s="3"/>
       <c r="AE307" s="3"/>
     </row>
-    <row r="308" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -11316,7 +11318,7 @@
       <c r="AD308" s="3"/>
       <c r="AE308" s="3"/>
     </row>
-    <row r="309" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -11349,7 +11351,7 @@
       <c r="AD309" s="3"/>
       <c r="AE309" s="3"/>
     </row>
-    <row r="310" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -11382,7 +11384,7 @@
       <c r="AD310" s="3"/>
       <c r="AE310" s="3"/>
     </row>
-    <row r="311" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -11415,7 +11417,7 @@
       <c r="AD311" s="3"/>
       <c r="AE311" s="3"/>
     </row>
-    <row r="312" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -11448,7 +11450,7 @@
       <c r="AD312" s="3"/>
       <c r="AE312" s="3"/>
     </row>
-    <row r="313" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -11481,7 +11483,7 @@
       <c r="AD313" s="3"/>
       <c r="AE313" s="3"/>
     </row>
-    <row r="314" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -11514,7 +11516,7 @@
       <c r="AD314" s="3"/>
       <c r="AE314" s="3"/>
     </row>
-    <row r="315" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -11547,7 +11549,7 @@
       <c r="AD315" s="3"/>
       <c r="AE315" s="3"/>
     </row>
-    <row r="316" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -11580,7 +11582,7 @@
       <c r="AD316" s="3"/>
       <c r="AE316" s="3"/>
     </row>
-    <row r="317" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -11613,7 +11615,7 @@
       <c r="AD317" s="3"/>
       <c r="AE317" s="3"/>
     </row>
-    <row r="318" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -11646,7 +11648,7 @@
       <c r="AD318" s="3"/>
       <c r="AE318" s="3"/>
     </row>
-    <row r="319" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -11679,7 +11681,7 @@
       <c r="AD319" s="3"/>
       <c r="AE319" s="3"/>
     </row>
-    <row r="320" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -11712,7 +11714,7 @@
       <c r="AD320" s="3"/>
       <c r="AE320" s="3"/>
     </row>
-    <row r="321" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -11745,7 +11747,7 @@
       <c r="AD321" s="3"/>
       <c r="AE321" s="3"/>
     </row>
-    <row r="322" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -11778,7 +11780,7 @@
       <c r="AD322" s="3"/>
       <c r="AE322" s="3"/>
     </row>
-    <row r="323" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -11811,7 +11813,7 @@
       <c r="AD323" s="3"/>
       <c r="AE323" s="3"/>
     </row>
-    <row r="324" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -11844,7 +11846,7 @@
       <c r="AD324" s="3"/>
       <c r="AE324" s="3"/>
     </row>
-    <row r="325" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -11877,7 +11879,7 @@
       <c r="AD325" s="3"/>
       <c r="AE325" s="3"/>
     </row>
-    <row r="326" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -11910,7 +11912,7 @@
       <c r="AD326" s="3"/>
       <c r="AE326" s="3"/>
     </row>
-    <row r="327" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -11943,7 +11945,7 @@
       <c r="AD327" s="3"/>
       <c r="AE327" s="3"/>
     </row>
-    <row r="328" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -11976,7 +11978,7 @@
       <c r="AD328" s="3"/>
       <c r="AE328" s="3"/>
     </row>
-    <row r="329" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -12009,7 +12011,7 @@
       <c r="AD329" s="3"/>
       <c r="AE329" s="3"/>
     </row>
-    <row r="330" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -12042,7 +12044,7 @@
       <c r="AD330" s="3"/>
       <c r="AE330" s="3"/>
     </row>
-    <row r="331" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -12075,7 +12077,7 @@
       <c r="AD331" s="3"/>
       <c r="AE331" s="3"/>
     </row>
-    <row r="332" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -12108,7 +12110,7 @@
       <c r="AD332" s="3"/>
       <c r="AE332" s="3"/>
     </row>
-    <row r="333" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -12141,7 +12143,7 @@
       <c r="AD333" s="3"/>
       <c r="AE333" s="3"/>
     </row>
-    <row r="334" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -12174,7 +12176,7 @@
       <c r="AD334" s="3"/>
       <c r="AE334" s="3"/>
     </row>
-    <row r="335" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -12207,7 +12209,7 @@
       <c r="AD335" s="3"/>
       <c r="AE335" s="3"/>
     </row>
-    <row r="336" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -12240,7 +12242,7 @@
       <c r="AD336" s="3"/>
       <c r="AE336" s="3"/>
     </row>
-    <row r="337" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -12273,7 +12275,7 @@
       <c r="AD337" s="3"/>
       <c r="AE337" s="3"/>
     </row>
-    <row r="338" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -12306,7 +12308,7 @@
       <c r="AD338" s="3"/>
       <c r="AE338" s="3"/>
     </row>
-    <row r="339" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -12339,7 +12341,7 @@
       <c r="AD339" s="3"/>
       <c r="AE339" s="3"/>
     </row>
-    <row r="340" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -12372,7 +12374,7 @@
       <c r="AD340" s="3"/>
       <c r="AE340" s="3"/>
     </row>
-    <row r="341" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -12405,7 +12407,7 @@
       <c r="AD341" s="3"/>
       <c r="AE341" s="3"/>
     </row>
-    <row r="342" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -12438,7 +12440,7 @@
       <c r="AD342" s="3"/>
       <c r="AE342" s="3"/>
     </row>
-    <row r="343" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -12471,7 +12473,7 @@
       <c r="AD343" s="3"/>
       <c r="AE343" s="3"/>
     </row>
-    <row r="344" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -12504,7 +12506,7 @@
       <c r="AD344" s="3"/>
       <c r="AE344" s="3"/>
     </row>
-    <row r="345" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -12537,7 +12539,7 @@
       <c r="AD345" s="3"/>
       <c r="AE345" s="3"/>
     </row>
-    <row r="346" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -12570,7 +12572,7 @@
       <c r="AD346" s="3"/>
       <c r="AE346" s="3"/>
     </row>
-    <row r="347" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -12603,7 +12605,7 @@
       <c r="AD347" s="3"/>
       <c r="AE347" s="3"/>
     </row>
-    <row r="348" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -12636,7 +12638,7 @@
       <c r="AD348" s="3"/>
       <c r="AE348" s="3"/>
     </row>
-    <row r="349" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -12669,7 +12671,7 @@
       <c r="AD349" s="3"/>
       <c r="AE349" s="3"/>
     </row>
-    <row r="350" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -12702,7 +12704,7 @@
       <c r="AD350" s="3"/>
       <c r="AE350" s="3"/>
     </row>
-    <row r="351" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -12735,7 +12737,7 @@
       <c r="AD351" s="3"/>
       <c r="AE351" s="3"/>
     </row>
-    <row r="352" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -12768,7 +12770,7 @@
       <c r="AD352" s="3"/>
       <c r="AE352" s="3"/>
     </row>
-    <row r="353" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -12801,7 +12803,7 @@
       <c r="AD353" s="3"/>
       <c r="AE353" s="3"/>
     </row>
-    <row r="354" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -12834,7 +12836,7 @@
       <c r="AD354" s="3"/>
       <c r="AE354" s="3"/>
     </row>
-    <row r="355" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -12867,7 +12869,7 @@
       <c r="AD355" s="3"/>
       <c r="AE355" s="3"/>
     </row>
-    <row r="356" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -12900,7 +12902,7 @@
       <c r="AD356" s="3"/>
       <c r="AE356" s="3"/>
     </row>
-    <row r="357" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -12933,7 +12935,7 @@
       <c r="AD357" s="3"/>
       <c r="AE357" s="3"/>
     </row>
-    <row r="358" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -12966,7 +12968,7 @@
       <c r="AD358" s="3"/>
       <c r="AE358" s="3"/>
     </row>
-    <row r="359" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -12999,7 +13001,7 @@
       <c r="AD359" s="3"/>
       <c r="AE359" s="3"/>
     </row>
-    <row r="360" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -13032,7 +13034,7 @@
       <c r="AD360" s="3"/>
       <c r="AE360" s="3"/>
     </row>
-    <row r="361" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -13065,7 +13067,7 @@
       <c r="AD361" s="3"/>
       <c r="AE361" s="3"/>
     </row>
-    <row r="362" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -13098,7 +13100,7 @@
       <c r="AD362" s="3"/>
       <c r="AE362" s="3"/>
     </row>
-    <row r="363" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -13131,7 +13133,7 @@
       <c r="AD363" s="3"/>
       <c r="AE363" s="3"/>
     </row>
-    <row r="364" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -13164,7 +13166,7 @@
       <c r="AD364" s="3"/>
       <c r="AE364" s="3"/>
     </row>
-    <row r="365" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -13197,7 +13199,7 @@
       <c r="AD365" s="3"/>
       <c r="AE365" s="3"/>
     </row>
-    <row r="366" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -13230,7 +13232,7 @@
       <c r="AD366" s="3"/>
       <c r="AE366" s="3"/>
     </row>
-    <row r="367" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -13263,7 +13265,7 @@
       <c r="AD367" s="3"/>
       <c r="AE367" s="3"/>
     </row>
-    <row r="368" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -13296,7 +13298,7 @@
       <c r="AD368" s="3"/>
       <c r="AE368" s="3"/>
     </row>
-    <row r="369" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -13329,7 +13331,7 @@
       <c r="AD369" s="3"/>
       <c r="AE369" s="3"/>
     </row>
-    <row r="370" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -13362,7 +13364,7 @@
       <c r="AD370" s="3"/>
       <c r="AE370" s="3"/>
     </row>
-    <row r="371" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -13395,7 +13397,7 @@
       <c r="AD371" s="3"/>
       <c r="AE371" s="3"/>
     </row>
-    <row r="372" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -13428,7 +13430,7 @@
       <c r="AD372" s="3"/>
       <c r="AE372" s="3"/>
     </row>
-    <row r="373" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -13461,7 +13463,7 @@
       <c r="AD373" s="3"/>
       <c r="AE373" s="3"/>
     </row>
-    <row r="374" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -13494,7 +13496,7 @@
       <c r="AD374" s="3"/>
       <c r="AE374" s="3"/>
     </row>
-    <row r="375" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -13527,7 +13529,7 @@
       <c r="AD375" s="3"/>
       <c r="AE375" s="3"/>
     </row>
-    <row r="376" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -13560,7 +13562,7 @@
       <c r="AD376" s="3"/>
       <c r="AE376" s="3"/>
     </row>
-    <row r="377" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -13593,7 +13595,7 @@
       <c r="AD377" s="3"/>
       <c r="AE377" s="3"/>
     </row>
-    <row r="378" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -13626,7 +13628,7 @@
       <c r="AD378" s="3"/>
       <c r="AE378" s="3"/>
     </row>
-    <row r="379" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -13659,7 +13661,7 @@
       <c r="AD379" s="3"/>
       <c r="AE379" s="3"/>
     </row>
-    <row r="380" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -13692,7 +13694,7 @@
       <c r="AD380" s="3"/>
       <c r="AE380" s="3"/>
     </row>
-    <row r="381" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -13725,7 +13727,7 @@
       <c r="AD381" s="3"/>
       <c r="AE381" s="3"/>
     </row>
-    <row r="382" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -13758,7 +13760,7 @@
       <c r="AD382" s="3"/>
       <c r="AE382" s="3"/>
     </row>
-    <row r="383" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -13791,7 +13793,7 @@
       <c r="AD383" s="3"/>
       <c r="AE383" s="3"/>
     </row>
-    <row r="384" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -13824,7 +13826,7 @@
       <c r="AD384" s="3"/>
       <c r="AE384" s="3"/>
     </row>
-    <row r="385" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -13857,7 +13859,7 @@
       <c r="AD385" s="3"/>
       <c r="AE385" s="3"/>
     </row>
-    <row r="386" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -13890,7 +13892,7 @@
       <c r="AD386" s="3"/>
       <c r="AE386" s="3"/>
     </row>
-    <row r="387" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -13923,7 +13925,7 @@
       <c r="AD387" s="3"/>
       <c r="AE387" s="3"/>
     </row>
-    <row r="388" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -13956,7 +13958,7 @@
       <c r="AD388" s="3"/>
       <c r="AE388" s="3"/>
     </row>
-    <row r="389" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -13989,7 +13991,7 @@
       <c r="AD389" s="3"/>
       <c r="AE389" s="3"/>
     </row>
-    <row r="390" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -14022,7 +14024,7 @@
       <c r="AD390" s="3"/>
       <c r="AE390" s="3"/>
     </row>
-    <row r="391" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -14055,7 +14057,7 @@
       <c r="AD391" s="3"/>
       <c r="AE391" s="3"/>
     </row>
-    <row r="392" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -14088,7 +14090,7 @@
       <c r="AD392" s="3"/>
       <c r="AE392" s="3"/>
     </row>
-    <row r="393" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -14121,7 +14123,7 @@
       <c r="AD393" s="3"/>
       <c r="AE393" s="3"/>
     </row>
-    <row r="394" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -14154,7 +14156,7 @@
       <c r="AD394" s="3"/>
       <c r="AE394" s="3"/>
     </row>
-    <row r="395" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -14187,7 +14189,7 @@
       <c r="AD395" s="3"/>
       <c r="AE395" s="3"/>
     </row>
-    <row r="396" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -14220,7 +14222,7 @@
       <c r="AD396" s="3"/>
       <c r="AE396" s="3"/>
     </row>
-    <row r="397" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -14253,7 +14255,7 @@
       <c r="AD397" s="3"/>
       <c r="AE397" s="3"/>
     </row>
-    <row r="398" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -14286,7 +14288,7 @@
       <c r="AD398" s="3"/>
       <c r="AE398" s="3"/>
     </row>
-    <row r="399" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -14319,7 +14321,7 @@
       <c r="AD399" s="3"/>
       <c r="AE399" s="3"/>
     </row>
-    <row r="400" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -14352,7 +14354,7 @@
       <c r="AD400" s="3"/>
       <c r="AE400" s="3"/>
     </row>
-    <row r="401" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -14385,7 +14387,7 @@
       <c r="AD401" s="3"/>
       <c r="AE401" s="3"/>
     </row>
-    <row r="402" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -14418,7 +14420,7 @@
       <c r="AD402" s="3"/>
       <c r="AE402" s="3"/>
     </row>
-    <row r="403" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -14451,7 +14453,7 @@
       <c r="AD403" s="3"/>
       <c r="AE403" s="3"/>
     </row>
-    <row r="404" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -14484,7 +14486,7 @@
       <c r="AD404" s="3"/>
       <c r="AE404" s="3"/>
     </row>
-    <row r="405" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -14517,7 +14519,7 @@
       <c r="AD405" s="3"/>
       <c r="AE405" s="3"/>
     </row>
-    <row r="406" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -14550,7 +14552,7 @@
       <c r="AD406" s="3"/>
       <c r="AE406" s="3"/>
     </row>
-    <row r="407" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -14583,7 +14585,7 @@
       <c r="AD407" s="3"/>
       <c r="AE407" s="3"/>
     </row>
-    <row r="408" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -14616,7 +14618,7 @@
       <c r="AD408" s="3"/>
       <c r="AE408" s="3"/>
     </row>
-    <row r="409" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -14649,7 +14651,7 @@
       <c r="AD409" s="3"/>
       <c r="AE409" s="3"/>
     </row>
-    <row r="410" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -14682,7 +14684,7 @@
       <c r="AD410" s="3"/>
       <c r="AE410" s="3"/>
     </row>
-    <row r="411" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -14715,7 +14717,7 @@
       <c r="AD411" s="3"/>
       <c r="AE411" s="3"/>
     </row>
-    <row r="412" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -14748,7 +14750,7 @@
       <c r="AD412" s="3"/>
       <c r="AE412" s="3"/>
     </row>
-    <row r="413" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -14781,7 +14783,7 @@
       <c r="AD413" s="3"/>
       <c r="AE413" s="3"/>
     </row>
-    <row r="414" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -14814,7 +14816,7 @@
       <c r="AD414" s="3"/>
       <c r="AE414" s="3"/>
     </row>
-    <row r="415" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -14847,7 +14849,7 @@
       <c r="AD415" s="3"/>
       <c r="AE415" s="3"/>
     </row>
-    <row r="416" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -14880,7 +14882,7 @@
       <c r="AD416" s="3"/>
       <c r="AE416" s="3"/>
     </row>
-    <row r="417" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -14913,7 +14915,7 @@
       <c r="AD417" s="3"/>
       <c r="AE417" s="3"/>
     </row>
-    <row r="418" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -14946,7 +14948,7 @@
       <c r="AD418" s="3"/>
       <c r="AE418" s="3"/>
     </row>
-    <row r="419" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -14979,7 +14981,7 @@
       <c r="AD419" s="3"/>
       <c r="AE419" s="3"/>
     </row>
-    <row r="420" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -15012,7 +15014,7 @@
       <c r="AD420" s="3"/>
       <c r="AE420" s="3"/>
     </row>
-    <row r="421" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -15045,7 +15047,7 @@
       <c r="AD421" s="3"/>
       <c r="AE421" s="3"/>
     </row>
-    <row r="422" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -15078,7 +15080,7 @@
       <c r="AD422" s="3"/>
       <c r="AE422" s="3"/>
     </row>
-    <row r="423" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -15111,7 +15113,7 @@
       <c r="AD423" s="3"/>
       <c r="AE423" s="3"/>
     </row>
-    <row r="424" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -15144,7 +15146,7 @@
       <c r="AD424" s="3"/>
       <c r="AE424" s="3"/>
     </row>
-    <row r="425" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -15177,7 +15179,7 @@
       <c r="AD425" s="3"/>
       <c r="AE425" s="3"/>
     </row>
-    <row r="426" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -15210,7 +15212,7 @@
       <c r="AD426" s="3"/>
       <c r="AE426" s="3"/>
     </row>
-    <row r="427" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -15243,7 +15245,7 @@
       <c r="AD427" s="3"/>
       <c r="AE427" s="3"/>
     </row>
-    <row r="428" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -15276,7 +15278,7 @@
       <c r="AD428" s="3"/>
       <c r="AE428" s="3"/>
     </row>
-    <row r="429" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -15309,7 +15311,7 @@
       <c r="AD429" s="3"/>
       <c r="AE429" s="3"/>
     </row>
-    <row r="430" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -15342,7 +15344,7 @@
       <c r="AD430" s="3"/>
       <c r="AE430" s="3"/>
     </row>
-    <row r="431" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -15375,7 +15377,7 @@
       <c r="AD431" s="3"/>
       <c r="AE431" s="3"/>
     </row>
-    <row r="432" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -15408,7 +15410,7 @@
       <c r="AD432" s="3"/>
       <c r="AE432" s="3"/>
     </row>
-    <row r="433" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -15441,7 +15443,7 @@
       <c r="AD433" s="3"/>
       <c r="AE433" s="3"/>
     </row>
-    <row r="434" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -15474,7 +15476,7 @@
       <c r="AD434" s="3"/>
       <c r="AE434" s="3"/>
     </row>
-    <row r="435" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -15507,7 +15509,7 @@
       <c r="AD435" s="3"/>
       <c r="AE435" s="3"/>
     </row>
-    <row r="436" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -15540,7 +15542,7 @@
       <c r="AD436" s="3"/>
       <c r="AE436" s="3"/>
     </row>
-    <row r="437" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -15573,7 +15575,7 @@
       <c r="AD437" s="3"/>
       <c r="AE437" s="3"/>
     </row>
-    <row r="438" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -15606,7 +15608,7 @@
       <c r="AD438" s="3"/>
       <c r="AE438" s="3"/>
     </row>
-    <row r="439" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -15639,7 +15641,7 @@
       <c r="AD439" s="3"/>
       <c r="AE439" s="3"/>
     </row>
-    <row r="440" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -15672,7 +15674,7 @@
       <c r="AD440" s="3"/>
       <c r="AE440" s="3"/>
     </row>
-    <row r="441" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -15705,7 +15707,7 @@
       <c r="AD441" s="3"/>
       <c r="AE441" s="3"/>
     </row>
-    <row r="442" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -15738,7 +15740,7 @@
       <c r="AD442" s="3"/>
       <c r="AE442" s="3"/>
     </row>
-    <row r="443" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -15771,7 +15773,7 @@
       <c r="AD443" s="3"/>
       <c r="AE443" s="3"/>
     </row>
-    <row r="444" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -15804,7 +15806,7 @@
       <c r="AD444" s="3"/>
       <c r="AE444" s="3"/>
     </row>
-    <row r="445" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -15837,7 +15839,7 @@
       <c r="AD445" s="3"/>
       <c r="AE445" s="3"/>
     </row>
-    <row r="446" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -15870,7 +15872,7 @@
       <c r="AD446" s="3"/>
       <c r="AE446" s="3"/>
     </row>
-    <row r="447" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -15903,7 +15905,7 @@
       <c r="AD447" s="3"/>
       <c r="AE447" s="3"/>
     </row>
-    <row r="448" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -15936,7 +15938,7 @@
       <c r="AD448" s="3"/>
       <c r="AE448" s="3"/>
     </row>
-    <row r="449" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -15969,7 +15971,7 @@
       <c r="AD449" s="3"/>
       <c r="AE449" s="3"/>
     </row>
-    <row r="450" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -16002,7 +16004,7 @@
       <c r="AD450" s="3"/>
       <c r="AE450" s="3"/>
     </row>
-    <row r="451" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -16035,7 +16037,7 @@
       <c r="AD451" s="3"/>
       <c r="AE451" s="3"/>
     </row>
-    <row r="452" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -16068,7 +16070,7 @@
       <c r="AD452" s="3"/>
       <c r="AE452" s="3"/>
     </row>
-    <row r="453" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -16101,7 +16103,7 @@
       <c r="AD453" s="3"/>
       <c r="AE453" s="3"/>
     </row>
-    <row r="454" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -16134,7 +16136,7 @@
       <c r="AD454" s="3"/>
       <c r="AE454" s="3"/>
     </row>
-    <row r="455" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -16167,7 +16169,7 @@
       <c r="AD455" s="3"/>
       <c r="AE455" s="3"/>
     </row>
-    <row r="456" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -16200,7 +16202,7 @@
       <c r="AD456" s="3"/>
       <c r="AE456" s="3"/>
     </row>
-    <row r="457" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -16233,7 +16235,7 @@
       <c r="AD457" s="3"/>
       <c r="AE457" s="3"/>
     </row>
-    <row r="458" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -16266,7 +16268,7 @@
       <c r="AD458" s="3"/>
       <c r="AE458" s="3"/>
     </row>
-    <row r="459" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -16299,7 +16301,7 @@
       <c r="AD459" s="3"/>
       <c r="AE459" s="3"/>
     </row>
-    <row r="460" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -16332,7 +16334,7 @@
       <c r="AD460" s="3"/>
       <c r="AE460" s="3"/>
     </row>
-    <row r="461" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -16365,7 +16367,7 @@
       <c r="AD461" s="3"/>
       <c r="AE461" s="3"/>
     </row>
-    <row r="462" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -16398,7 +16400,7 @@
       <c r="AD462" s="3"/>
       <c r="AE462" s="3"/>
     </row>
-    <row r="463" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -16431,7 +16433,7 @@
       <c r="AD463" s="3"/>
       <c r="AE463" s="3"/>
     </row>
-    <row r="464" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -16464,7 +16466,7 @@
       <c r="AD464" s="3"/>
       <c r="AE464" s="3"/>
     </row>
-    <row r="465" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -16497,7 +16499,7 @@
       <c r="AD465" s="3"/>
       <c r="AE465" s="3"/>
     </row>
-    <row r="466" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -16530,7 +16532,7 @@
       <c r="AD466" s="3"/>
       <c r="AE466" s="3"/>
     </row>
-    <row r="467" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -16563,7 +16565,7 @@
       <c r="AD467" s="3"/>
       <c r="AE467" s="3"/>
     </row>
-    <row r="468" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -16596,7 +16598,7 @@
       <c r="AD468" s="3"/>
       <c r="AE468" s="3"/>
     </row>
-    <row r="469" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -16629,7 +16631,7 @@
       <c r="AD469" s="3"/>
       <c r="AE469" s="3"/>
     </row>
-    <row r="470" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -16662,7 +16664,7 @@
       <c r="AD470" s="3"/>
       <c r="AE470" s="3"/>
     </row>
-    <row r="471" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -16695,7 +16697,7 @@
       <c r="AD471" s="3"/>
       <c r="AE471" s="3"/>
     </row>
-    <row r="472" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -16728,7 +16730,7 @@
       <c r="AD472" s="3"/>
       <c r="AE472" s="3"/>
     </row>
-    <row r="473" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -16761,7 +16763,7 @@
       <c r="AD473" s="3"/>
       <c r="AE473" s="3"/>
     </row>
-    <row r="474" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -16794,7 +16796,7 @@
       <c r="AD474" s="3"/>
       <c r="AE474" s="3"/>
     </row>
-    <row r="475" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -16827,7 +16829,7 @@
       <c r="AD475" s="3"/>
       <c r="AE475" s="3"/>
     </row>
-    <row r="476" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -16860,7 +16862,7 @@
       <c r="AD476" s="3"/>
       <c r="AE476" s="3"/>
     </row>
-    <row r="477" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -16893,7 +16895,7 @@
       <c r="AD477" s="3"/>
       <c r="AE477" s="3"/>
     </row>
-    <row r="478" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -16926,7 +16928,7 @@
       <c r="AD478" s="3"/>
       <c r="AE478" s="3"/>
     </row>
-    <row r="479" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -16959,7 +16961,7 @@
       <c r="AD479" s="3"/>
       <c r="AE479" s="3"/>
     </row>
-    <row r="480" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -16992,7 +16994,7 @@
       <c r="AD480" s="3"/>
       <c r="AE480" s="3"/>
     </row>
-    <row r="481" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -17025,7 +17027,7 @@
       <c r="AD481" s="3"/>
       <c r="AE481" s="3"/>
     </row>
-    <row r="482" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -17058,7 +17060,7 @@
       <c r="AD482" s="3"/>
       <c r="AE482" s="3"/>
     </row>
-    <row r="483" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -17091,7 +17093,7 @@
       <c r="AD483" s="3"/>
       <c r="AE483" s="3"/>
     </row>
-    <row r="484" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -17124,7 +17126,7 @@
       <c r="AD484" s="3"/>
       <c r="AE484" s="3"/>
     </row>
-    <row r="485" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -17157,7 +17159,7 @@
       <c r="AD485" s="3"/>
       <c r="AE485" s="3"/>
     </row>
-    <row r="486" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -17190,7 +17192,7 @@
       <c r="AD486" s="3"/>
       <c r="AE486" s="3"/>
     </row>
-    <row r="487" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -17223,7 +17225,7 @@
       <c r="AD487" s="3"/>
       <c r="AE487" s="3"/>
     </row>
-    <row r="488" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -17256,7 +17258,7 @@
       <c r="AD488" s="3"/>
       <c r="AE488" s="3"/>
     </row>
-    <row r="489" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -17289,7 +17291,7 @@
       <c r="AD489" s="3"/>
       <c r="AE489" s="3"/>
     </row>
-    <row r="490" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -17322,7 +17324,7 @@
       <c r="AD490" s="3"/>
       <c r="AE490" s="3"/>
     </row>
-    <row r="491" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -17355,7 +17357,7 @@
       <c r="AD491" s="3"/>
       <c r="AE491" s="3"/>
     </row>
-    <row r="492" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -17388,7 +17390,7 @@
       <c r="AD492" s="3"/>
       <c r="AE492" s="3"/>
     </row>
-    <row r="493" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -17421,7 +17423,7 @@
       <c r="AD493" s="3"/>
       <c r="AE493" s="3"/>
     </row>
-    <row r="494" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -17454,7 +17456,7 @@
       <c r="AD494" s="3"/>
       <c r="AE494" s="3"/>
     </row>
-    <row r="495" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -17487,7 +17489,7 @@
       <c r="AD495" s="3"/>
       <c r="AE495" s="3"/>
     </row>
-    <row r="496" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -17520,7 +17522,7 @@
       <c r="AD496" s="3"/>
       <c r="AE496" s="3"/>
     </row>
-    <row r="497" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -17553,7 +17555,7 @@
       <c r="AD497" s="3"/>
       <c r="AE497" s="3"/>
     </row>
-    <row r="498" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -17586,7 +17588,7 @@
       <c r="AD498" s="3"/>
       <c r="AE498" s="3"/>
     </row>
-    <row r="499" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -17619,7 +17621,7 @@
       <c r="AD499" s="3"/>
       <c r="AE499" s="3"/>
     </row>
-    <row r="500" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -17652,7 +17654,7 @@
       <c r="AD500" s="3"/>
       <c r="AE500" s="3"/>
     </row>
-    <row r="501" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -17685,7 +17687,7 @@
       <c r="AD501" s="3"/>
       <c r="AE501" s="3"/>
     </row>
-    <row r="502" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -17718,7 +17720,7 @@
       <c r="AD502" s="3"/>
       <c r="AE502" s="3"/>
     </row>
-    <row r="503" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -17751,7 +17753,7 @@
       <c r="AD503" s="3"/>
       <c r="AE503" s="3"/>
     </row>
-    <row r="504" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -17784,7 +17786,7 @@
       <c r="AD504" s="3"/>
       <c r="AE504" s="3"/>
     </row>
-    <row r="505" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -17817,7 +17819,7 @@
       <c r="AD505" s="3"/>
       <c r="AE505" s="3"/>
     </row>
-    <row r="506" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -17850,7 +17852,7 @@
       <c r="AD506" s="3"/>
       <c r="AE506" s="3"/>
     </row>
-    <row r="507" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -17883,7 +17885,7 @@
       <c r="AD507" s="3"/>
       <c r="AE507" s="3"/>
     </row>
-    <row r="508" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -17916,7 +17918,7 @@
       <c r="AD508" s="3"/>
       <c r="AE508" s="3"/>
     </row>
-    <row r="509" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -17949,7 +17951,7 @@
       <c r="AD509" s="3"/>
       <c r="AE509" s="3"/>
     </row>
-    <row r="510" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -17982,7 +17984,7 @@
       <c r="AD510" s="3"/>
       <c r="AE510" s="3"/>
     </row>
-    <row r="511" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -18015,7 +18017,7 @@
       <c r="AD511" s="3"/>
       <c r="AE511" s="3"/>
     </row>
-    <row r="512" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -18048,7 +18050,7 @@
       <c r="AD512" s="3"/>
       <c r="AE512" s="3"/>
     </row>
-    <row r="513" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -18081,7 +18083,7 @@
       <c r="AD513" s="3"/>
       <c r="AE513" s="3"/>
     </row>
-    <row r="514" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -18114,7 +18116,7 @@
       <c r="AD514" s="3"/>
       <c r="AE514" s="3"/>
     </row>
-    <row r="515" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -18147,7 +18149,7 @@
       <c r="AD515" s="3"/>
       <c r="AE515" s="3"/>
     </row>
-    <row r="516" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -18180,7 +18182,7 @@
       <c r="AD516" s="3"/>
       <c r="AE516" s="3"/>
     </row>
-    <row r="517" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -18213,7 +18215,7 @@
       <c r="AD517" s="3"/>
       <c r="AE517" s="3"/>
     </row>
-    <row r="518" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -18246,7 +18248,7 @@
       <c r="AD518" s="3"/>
       <c r="AE518" s="3"/>
     </row>
-    <row r="519" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -18279,7 +18281,7 @@
       <c r="AD519" s="3"/>
       <c r="AE519" s="3"/>
     </row>
-    <row r="520" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -18312,7 +18314,7 @@
       <c r="AD520" s="3"/>
       <c r="AE520" s="3"/>
     </row>
-    <row r="521" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -18345,7 +18347,7 @@
       <c r="AD521" s="3"/>
       <c r="AE521" s="3"/>
     </row>
-    <row r="522" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -18378,7 +18380,7 @@
       <c r="AD522" s="3"/>
       <c r="AE522" s="3"/>
     </row>
-    <row r="523" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -18411,7 +18413,7 @@
       <c r="AD523" s="3"/>
       <c r="AE523" s="3"/>
     </row>
-    <row r="524" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -18444,7 +18446,7 @@
       <c r="AD524" s="3"/>
       <c r="AE524" s="3"/>
     </row>
-    <row r="525" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -18477,7 +18479,7 @@
       <c r="AD525" s="3"/>
       <c r="AE525" s="3"/>
     </row>
-    <row r="526" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -18510,7 +18512,7 @@
       <c r="AD526" s="3"/>
       <c r="AE526" s="3"/>
     </row>
-    <row r="527" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -18543,7 +18545,7 @@
       <c r="AD527" s="3"/>
       <c r="AE527" s="3"/>
     </row>
-    <row r="528" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -18576,7 +18578,7 @@
       <c r="AD528" s="3"/>
       <c r="AE528" s="3"/>
     </row>
-    <row r="529" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -18609,7 +18611,7 @@
       <c r="AD529" s="3"/>
       <c r="AE529" s="3"/>
     </row>
-    <row r="530" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -18642,7 +18644,7 @@
       <c r="AD530" s="3"/>
       <c r="AE530" s="3"/>
     </row>
-    <row r="531" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -18675,7 +18677,7 @@
       <c r="AD531" s="3"/>
       <c r="AE531" s="3"/>
     </row>
-    <row r="532" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -18708,7 +18710,7 @@
       <c r="AD532" s="3"/>
       <c r="AE532" s="3"/>
     </row>
-    <row r="533" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -18741,7 +18743,7 @@
       <c r="AD533" s="3"/>
       <c r="AE533" s="3"/>
     </row>
-    <row r="534" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -18774,7 +18776,7 @@
       <c r="AD534" s="3"/>
       <c r="AE534" s="3"/>
     </row>
-    <row r="535" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -18807,7 +18809,7 @@
       <c r="AD535" s="3"/>
       <c r="AE535" s="3"/>
     </row>
-    <row r="536" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -18840,7 +18842,7 @@
       <c r="AD536" s="3"/>
       <c r="AE536" s="3"/>
     </row>
-    <row r="537" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -18873,7 +18875,7 @@
       <c r="AD537" s="3"/>
       <c r="AE537" s="3"/>
     </row>
-    <row r="538" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -18906,7 +18908,7 @@
       <c r="AD538" s="3"/>
       <c r="AE538" s="3"/>
     </row>
-    <row r="539" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -18939,7 +18941,7 @@
       <c r="AD539" s="3"/>
       <c r="AE539" s="3"/>
     </row>
-    <row r="540" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -18972,7 +18974,7 @@
       <c r="AD540" s="3"/>
       <c r="AE540" s="3"/>
     </row>
-    <row r="541" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -19005,7 +19007,7 @@
       <c r="AD541" s="3"/>
       <c r="AE541" s="3"/>
     </row>
-    <row r="542" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -19038,7 +19040,7 @@
       <c r="AD542" s="3"/>
       <c r="AE542" s="3"/>
     </row>
-    <row r="543" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -19071,7 +19073,7 @@
       <c r="AD543" s="3"/>
       <c r="AE543" s="3"/>
     </row>
-    <row r="544" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -19104,7 +19106,7 @@
       <c r="AD544" s="3"/>
       <c r="AE544" s="3"/>
     </row>
-    <row r="545" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -19137,7 +19139,7 @@
       <c r="AD545" s="3"/>
       <c r="AE545" s="3"/>
     </row>
-    <row r="546" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -19170,7 +19172,7 @@
       <c r="AD546" s="3"/>
       <c r="AE546" s="3"/>
     </row>
-    <row r="547" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -19203,7 +19205,7 @@
       <c r="AD547" s="3"/>
       <c r="AE547" s="3"/>
     </row>
-    <row r="548" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -19236,7 +19238,7 @@
       <c r="AD548" s="3"/>
       <c r="AE548" s="3"/>
     </row>
-    <row r="549" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -19269,7 +19271,7 @@
       <c r="AD549" s="3"/>
       <c r="AE549" s="3"/>
     </row>
-    <row r="550" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -19302,7 +19304,7 @@
       <c r="AD550" s="3"/>
       <c r="AE550" s="3"/>
     </row>
-    <row r="551" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -19335,7 +19337,7 @@
       <c r="AD551" s="3"/>
       <c r="AE551" s="3"/>
     </row>
-    <row r="552" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -19368,7 +19370,7 @@
       <c r="AD552" s="3"/>
       <c r="AE552" s="3"/>
     </row>
-    <row r="553" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -19401,7 +19403,7 @@
       <c r="AD553" s="3"/>
       <c r="AE553" s="3"/>
     </row>
-    <row r="554" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -19434,7 +19436,7 @@
       <c r="AD554" s="3"/>
       <c r="AE554" s="3"/>
     </row>
-    <row r="555" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -19467,7 +19469,7 @@
       <c r="AD555" s="3"/>
       <c r="AE555" s="3"/>
     </row>
-    <row r="556" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -19500,7 +19502,7 @@
       <c r="AD556" s="3"/>
       <c r="AE556" s="3"/>
     </row>
-    <row r="557" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -19533,7 +19535,7 @@
       <c r="AD557" s="3"/>
       <c r="AE557" s="3"/>
     </row>
-    <row r="558" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -19566,7 +19568,7 @@
       <c r="AD558" s="3"/>
       <c r="AE558" s="3"/>
     </row>
-    <row r="559" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -19599,7 +19601,7 @@
       <c r="AD559" s="3"/>
       <c r="AE559" s="3"/>
     </row>
-    <row r="560" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -19632,7 +19634,7 @@
       <c r="AD560" s="3"/>
       <c r="AE560" s="3"/>
     </row>
-    <row r="561" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -19665,7 +19667,7 @@
       <c r="AD561" s="3"/>
       <c r="AE561" s="3"/>
     </row>
-    <row r="562" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -19698,7 +19700,7 @@
       <c r="AD562" s="3"/>
       <c r="AE562" s="3"/>
     </row>
-    <row r="563" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -19731,7 +19733,7 @@
       <c r="AD563" s="3"/>
       <c r="AE563" s="3"/>
     </row>
-    <row r="564" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -19764,7 +19766,7 @@
       <c r="AD564" s="3"/>
       <c r="AE564" s="3"/>
     </row>
-    <row r="565" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -19797,7 +19799,7 @@
       <c r="AD565" s="3"/>
       <c r="AE565" s="3"/>
     </row>
-    <row r="566" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -19830,7 +19832,7 @@
       <c r="AD566" s="3"/>
       <c r="AE566" s="3"/>
     </row>
-    <row r="567" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -19863,7 +19865,7 @@
       <c r="AD567" s="3"/>
       <c r="AE567" s="3"/>
     </row>
-    <row r="568" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -19896,7 +19898,7 @@
       <c r="AD568" s="3"/>
       <c r="AE568" s="3"/>
     </row>
-    <row r="569" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -19929,7 +19931,7 @@
       <c r="AD569" s="3"/>
       <c r="AE569" s="3"/>
     </row>
-    <row r="570" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -19962,7 +19964,7 @@
       <c r="AD570" s="3"/>
       <c r="AE570" s="3"/>
     </row>
-    <row r="571" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -19995,7 +19997,7 @@
       <c r="AD571" s="3"/>
       <c r="AE571" s="3"/>
     </row>
-    <row r="572" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -20028,7 +20030,7 @@
       <c r="AD572" s="3"/>
       <c r="AE572" s="3"/>
     </row>
-    <row r="573" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -20061,7 +20063,7 @@
       <c r="AD573" s="3"/>
       <c r="AE573" s="3"/>
     </row>
-    <row r="574" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -20094,7 +20096,7 @@
       <c r="AD574" s="3"/>
       <c r="AE574" s="3"/>
     </row>
-    <row r="575" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -20127,7 +20129,7 @@
       <c r="AD575" s="3"/>
       <c r="AE575" s="3"/>
     </row>
-    <row r="576" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -20160,7 +20162,7 @@
       <c r="AD576" s="3"/>
       <c r="AE576" s="3"/>
     </row>
-    <row r="577" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -20193,7 +20195,7 @@
       <c r="AD577" s="3"/>
       <c r="AE577" s="3"/>
     </row>
-    <row r="578" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -20226,7 +20228,7 @@
       <c r="AD578" s="3"/>
       <c r="AE578" s="3"/>
     </row>
-    <row r="579" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -20259,7 +20261,7 @@
       <c r="AD579" s="3"/>
       <c r="AE579" s="3"/>
     </row>
-    <row r="580" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -20292,7 +20294,7 @@
       <c r="AD580" s="3"/>
       <c r="AE580" s="3"/>
     </row>
-    <row r="581" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -20325,7 +20327,7 @@
       <c r="AD581" s="3"/>
       <c r="AE581" s="3"/>
     </row>
-    <row r="582" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -20358,7 +20360,7 @@
       <c r="AD582" s="3"/>
       <c r="AE582" s="3"/>
     </row>
-    <row r="583" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -20391,7 +20393,7 @@
       <c r="AD583" s="3"/>
       <c r="AE583" s="3"/>
     </row>
-    <row r="584" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -20424,7 +20426,7 @@
       <c r="AD584" s="3"/>
       <c r="AE584" s="3"/>
     </row>
-    <row r="585" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -20457,7 +20459,7 @@
       <c r="AD585" s="3"/>
       <c r="AE585" s="3"/>
     </row>
-    <row r="586" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -20490,7 +20492,7 @@
       <c r="AD586" s="3"/>
       <c r="AE586" s="3"/>
     </row>
-    <row r="587" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -20523,7 +20525,7 @@
       <c r="AD587" s="3"/>
       <c r="AE587" s="3"/>
     </row>
-    <row r="588" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -20556,7 +20558,7 @@
       <c r="AD588" s="3"/>
       <c r="AE588" s="3"/>
     </row>
-    <row r="589" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -20589,7 +20591,7 @@
       <c r="AD589" s="3"/>
       <c r="AE589" s="3"/>
     </row>
-    <row r="590" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -20622,7 +20624,7 @@
       <c r="AD590" s="3"/>
       <c r="AE590" s="3"/>
     </row>
-    <row r="591" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -20655,7 +20657,7 @@
       <c r="AD591" s="3"/>
       <c r="AE591" s="3"/>
     </row>
-    <row r="592" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -20688,7 +20690,7 @@
       <c r="AD592" s="3"/>
       <c r="AE592" s="3"/>
     </row>
-    <row r="593" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -20721,7 +20723,7 @@
       <c r="AD593" s="3"/>
       <c r="AE593" s="3"/>
     </row>
-    <row r="594" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -20754,7 +20756,7 @@
       <c r="AD594" s="3"/>
       <c r="AE594" s="3"/>
     </row>
-    <row r="595" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -20787,7 +20789,7 @@
       <c r="AD595" s="3"/>
       <c r="AE595" s="3"/>
     </row>
-    <row r="596" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -20820,7 +20822,7 @@
       <c r="AD596" s="3"/>
       <c r="AE596" s="3"/>
     </row>
-    <row r="597" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -20853,7 +20855,7 @@
       <c r="AD597" s="3"/>
       <c r="AE597" s="3"/>
     </row>
-    <row r="598" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -20886,7 +20888,7 @@
       <c r="AD598" s="3"/>
       <c r="AE598" s="3"/>
     </row>
-    <row r="599" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -20919,7 +20921,7 @@
       <c r="AD599" s="3"/>
       <c r="AE599" s="3"/>
     </row>
-    <row r="600" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -20952,7 +20954,7 @@
       <c r="AD600" s="3"/>
       <c r="AE600" s="3"/>
     </row>
-    <row r="601" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -20985,7 +20987,7 @@
       <c r="AD601" s="3"/>
       <c r="AE601" s="3"/>
     </row>
-    <row r="602" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -21018,7 +21020,7 @@
       <c r="AD602" s="3"/>
       <c r="AE602" s="3"/>
     </row>
-    <row r="603" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -21051,7 +21053,7 @@
       <c r="AD603" s="3"/>
       <c r="AE603" s="3"/>
     </row>
-    <row r="604" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -21084,7 +21086,7 @@
       <c r="AD604" s="3"/>
       <c r="AE604" s="3"/>
     </row>
-    <row r="605" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -21117,7 +21119,7 @@
       <c r="AD605" s="3"/>
       <c r="AE605" s="3"/>
     </row>
-    <row r="606" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -21150,7 +21152,7 @@
       <c r="AD606" s="3"/>
       <c r="AE606" s="3"/>
     </row>
-    <row r="607" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -21183,7 +21185,7 @@
       <c r="AD607" s="3"/>
       <c r="AE607" s="3"/>
     </row>
-    <row r="608" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -21216,7 +21218,7 @@
       <c r="AD608" s="3"/>
       <c r="AE608" s="3"/>
     </row>
-    <row r="609" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -21249,7 +21251,7 @@
       <c r="AD609" s="3"/>
       <c r="AE609" s="3"/>
     </row>
-    <row r="610" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -21282,7 +21284,7 @@
       <c r="AD610" s="3"/>
       <c r="AE610" s="3"/>
     </row>
-    <row r="611" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -21315,7 +21317,7 @@
       <c r="AD611" s="3"/>
       <c r="AE611" s="3"/>
     </row>
-    <row r="612" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -21348,7 +21350,7 @@
       <c r="AD612" s="3"/>
       <c r="AE612" s="3"/>
     </row>
-    <row r="613" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -21381,7 +21383,7 @@
       <c r="AD613" s="3"/>
       <c r="AE613" s="3"/>
     </row>
-    <row r="614" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -21414,7 +21416,7 @@
       <c r="AD614" s="3"/>
       <c r="AE614" s="3"/>
     </row>
-    <row r="615" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -21447,7 +21449,7 @@
       <c r="AD615" s="3"/>
       <c r="AE615" s="3"/>
     </row>
-    <row r="616" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -21480,7 +21482,7 @@
       <c r="AD616" s="3"/>
       <c r="AE616" s="3"/>
     </row>
-    <row r="617" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -21513,7 +21515,7 @@
       <c r="AD617" s="3"/>
       <c r="AE617" s="3"/>
     </row>
-    <row r="618" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -21546,7 +21548,7 @@
       <c r="AD618" s="3"/>
       <c r="AE618" s="3"/>
     </row>
-    <row r="619" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -21579,7 +21581,7 @@
       <c r="AD619" s="3"/>
       <c r="AE619" s="3"/>
     </row>
-    <row r="620" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -21612,7 +21614,7 @@
       <c r="AD620" s="3"/>
       <c r="AE620" s="3"/>
     </row>
-    <row r="621" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -21645,7 +21647,7 @@
       <c r="AD621" s="3"/>
       <c r="AE621" s="3"/>
     </row>
-    <row r="622" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -21678,7 +21680,7 @@
       <c r="AD622" s="3"/>
       <c r="AE622" s="3"/>
     </row>
-    <row r="623" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -21711,7 +21713,7 @@
       <c r="AD623" s="3"/>
       <c r="AE623" s="3"/>
     </row>
-    <row r="624" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -21744,7 +21746,7 @@
       <c r="AD624" s="3"/>
       <c r="AE624" s="3"/>
     </row>
-    <row r="625" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -21777,7 +21779,7 @@
       <c r="AD625" s="3"/>
       <c r="AE625" s="3"/>
     </row>
-    <row r="626" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -21810,7 +21812,7 @@
       <c r="AD626" s="3"/>
       <c r="AE626" s="3"/>
     </row>
-    <row r="627" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -21843,7 +21845,7 @@
       <c r="AD627" s="3"/>
       <c r="AE627" s="3"/>
     </row>
-    <row r="628" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -21876,7 +21878,7 @@
       <c r="AD628" s="3"/>
       <c r="AE628" s="3"/>
     </row>
-    <row r="629" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -21909,7 +21911,7 @@
       <c r="AD629" s="3"/>
       <c r="AE629" s="3"/>
     </row>
-    <row r="630" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -21942,7 +21944,7 @@
       <c r="AD630" s="3"/>
       <c r="AE630" s="3"/>
     </row>
-    <row r="631" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -21975,7 +21977,7 @@
       <c r="AD631" s="3"/>
       <c r="AE631" s="3"/>
     </row>
-    <row r="632" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -22008,7 +22010,7 @@
       <c r="AD632" s="3"/>
       <c r="AE632" s="3"/>
     </row>
-    <row r="633" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -22041,7 +22043,7 @@
       <c r="AD633" s="3"/>
       <c r="AE633" s="3"/>
     </row>
-    <row r="634" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -22074,7 +22076,7 @@
       <c r="AD634" s="3"/>
       <c r="AE634" s="3"/>
     </row>
-    <row r="635" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -22107,7 +22109,7 @@
       <c r="AD635" s="3"/>
       <c r="AE635" s="3"/>
     </row>
-    <row r="636" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -22140,7 +22142,7 @@
       <c r="AD636" s="3"/>
       <c r="AE636" s="3"/>
     </row>
-    <row r="637" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -22173,7 +22175,7 @@
       <c r="AD637" s="3"/>
       <c r="AE637" s="3"/>
     </row>
-    <row r="638" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -22206,7 +22208,7 @@
       <c r="AD638" s="3"/>
       <c r="AE638" s="3"/>
     </row>
-    <row r="639" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -22239,7 +22241,7 @@
       <c r="AD639" s="3"/>
       <c r="AE639" s="3"/>
     </row>
-    <row r="640" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -22272,7 +22274,7 @@
       <c r="AD640" s="3"/>
       <c r="AE640" s="3"/>
     </row>
-    <row r="641" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -22305,7 +22307,7 @@
       <c r="AD641" s="3"/>
       <c r="AE641" s="3"/>
     </row>
-    <row r="642" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -22338,7 +22340,7 @@
       <c r="AD642" s="3"/>
       <c r="AE642" s="3"/>
     </row>
-    <row r="643" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -22371,7 +22373,7 @@
       <c r="AD643" s="3"/>
       <c r="AE643" s="3"/>
     </row>
-    <row r="644" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -22404,7 +22406,7 @@
       <c r="AD644" s="3"/>
       <c r="AE644" s="3"/>
     </row>
-    <row r="645" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -22437,7 +22439,7 @@
       <c r="AD645" s="3"/>
       <c r="AE645" s="3"/>
     </row>
-    <row r="646" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -22470,7 +22472,7 @@
       <c r="AD646" s="3"/>
       <c r="AE646" s="3"/>
     </row>
-    <row r="647" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -22503,7 +22505,7 @@
       <c r="AD647" s="3"/>
       <c r="AE647" s="3"/>
     </row>
-    <row r="648" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -22536,7 +22538,7 @@
       <c r="AD648" s="3"/>
       <c r="AE648" s="3"/>
     </row>
-    <row r="649" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -22569,7 +22571,7 @@
       <c r="AD649" s="3"/>
       <c r="AE649" s="3"/>
     </row>
-    <row r="650" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -22602,7 +22604,7 @@
       <c r="AD650" s="3"/>
       <c r="AE650" s="3"/>
     </row>
-    <row r="651" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -22635,7 +22637,7 @@
       <c r="AD651" s="3"/>
       <c r="AE651" s="3"/>
     </row>
-    <row r="652" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -22668,7 +22670,7 @@
       <c r="AD652" s="3"/>
       <c r="AE652" s="3"/>
     </row>
-    <row r="653" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -22701,7 +22703,7 @@
       <c r="AD653" s="3"/>
       <c r="AE653" s="3"/>
     </row>
-    <row r="654" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -22734,7 +22736,7 @@
       <c r="AD654" s="3"/>
       <c r="AE654" s="3"/>
     </row>
-    <row r="655" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -22767,7 +22769,7 @@
       <c r="AD655" s="3"/>
       <c r="AE655" s="3"/>
     </row>
-    <row r="656" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -22800,7 +22802,7 @@
       <c r="AD656" s="3"/>
       <c r="AE656" s="3"/>
     </row>
-    <row r="657" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -22833,7 +22835,7 @@
       <c r="AD657" s="3"/>
       <c r="AE657" s="3"/>
     </row>
-    <row r="658" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -22866,7 +22868,7 @@
       <c r="AD658" s="3"/>
       <c r="AE658" s="3"/>
     </row>
-    <row r="659" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -22899,7 +22901,7 @@
       <c r="AD659" s="3"/>
       <c r="AE659" s="3"/>
     </row>
-    <row r="660" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -22932,7 +22934,7 @@
       <c r="AD660" s="3"/>
       <c r="AE660" s="3"/>
     </row>
-    <row r="661" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -22965,7 +22967,7 @@
       <c r="AD661" s="3"/>
       <c r="AE661" s="3"/>
     </row>
-    <row r="662" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -22998,7 +23000,7 @@
       <c r="AD662" s="3"/>
       <c r="AE662" s="3"/>
     </row>
-    <row r="663" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -23031,7 +23033,7 @@
       <c r="AD663" s="3"/>
       <c r="AE663" s="3"/>
     </row>
-    <row r="664" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -23064,7 +23066,7 @@
       <c r="AD664" s="3"/>
       <c r="AE664" s="3"/>
     </row>
-    <row r="665" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -23097,7 +23099,7 @@
       <c r="AD665" s="3"/>
       <c r="AE665" s="3"/>
     </row>
-    <row r="666" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -23130,7 +23132,7 @@
       <c r="AD666" s="3"/>
       <c r="AE666" s="3"/>
     </row>
-    <row r="667" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -23163,7 +23165,7 @@
       <c r="AD667" s="3"/>
       <c r="AE667" s="3"/>
     </row>
-    <row r="668" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -23196,7 +23198,7 @@
       <c r="AD668" s="3"/>
       <c r="AE668" s="3"/>
     </row>
-    <row r="669" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -23229,7 +23231,7 @@
       <c r="AD669" s="3"/>
       <c r="AE669" s="3"/>
     </row>
-    <row r="670" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -23262,7 +23264,7 @@
       <c r="AD670" s="3"/>
       <c r="AE670" s="3"/>
     </row>
-    <row r="671" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -23295,7 +23297,7 @@
       <c r="AD671" s="3"/>
       <c r="AE671" s="3"/>
     </row>
-    <row r="672" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -23328,7 +23330,7 @@
       <c r="AD672" s="3"/>
       <c r="AE672" s="3"/>
     </row>
-    <row r="673" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -23361,7 +23363,7 @@
       <c r="AD673" s="3"/>
       <c r="AE673" s="3"/>
     </row>
-    <row r="674" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -23394,7 +23396,7 @@
       <c r="AD674" s="3"/>
       <c r="AE674" s="3"/>
     </row>
-    <row r="675" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -23427,7 +23429,7 @@
       <c r="AD675" s="3"/>
       <c r="AE675" s="3"/>
     </row>
-    <row r="676" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -23460,7 +23462,7 @@
       <c r="AD676" s="3"/>
       <c r="AE676" s="3"/>
     </row>
-    <row r="677" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -23493,7 +23495,7 @@
       <c r="AD677" s="3"/>
       <c r="AE677" s="3"/>
     </row>
-    <row r="678" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -23526,7 +23528,7 @@
       <c r="AD678" s="3"/>
       <c r="AE678" s="3"/>
     </row>
-    <row r="679" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -23559,7 +23561,7 @@
       <c r="AD679" s="3"/>
       <c r="AE679" s="3"/>
     </row>
-    <row r="680" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -23592,7 +23594,7 @@
       <c r="AD680" s="3"/>
       <c r="AE680" s="3"/>
     </row>
-    <row r="681" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -23625,7 +23627,7 @@
       <c r="AD681" s="3"/>
       <c r="AE681" s="3"/>
     </row>
-    <row r="682" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -23658,7 +23660,7 @@
       <c r="AD682" s="3"/>
       <c r="AE682" s="3"/>
     </row>
-    <row r="683" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -23691,7 +23693,7 @@
       <c r="AD683" s="3"/>
       <c r="AE683" s="3"/>
     </row>
-    <row r="684" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -23724,7 +23726,7 @@
       <c r="AD684" s="3"/>
       <c r="AE684" s="3"/>
     </row>
-    <row r="685" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -23757,7 +23759,7 @@
       <c r="AD685" s="3"/>
       <c r="AE685" s="3"/>
     </row>
-    <row r="686" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -23790,7 +23792,7 @@
       <c r="AD686" s="3"/>
       <c r="AE686" s="3"/>
     </row>
-    <row r="687" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -23823,7 +23825,7 @@
       <c r="AD687" s="3"/>
       <c r="AE687" s="3"/>
     </row>
-    <row r="688" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -23856,7 +23858,7 @@
       <c r="AD688" s="3"/>
       <c r="AE688" s="3"/>
     </row>
-    <row r="689" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -23889,7 +23891,7 @@
       <c r="AD689" s="3"/>
       <c r="AE689" s="3"/>
     </row>
-    <row r="690" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -23922,7 +23924,7 @@
       <c r="AD690" s="3"/>
       <c r="AE690" s="3"/>
     </row>
-    <row r="691" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -23955,7 +23957,7 @@
       <c r="AD691" s="3"/>
       <c r="AE691" s="3"/>
     </row>
-    <row r="692" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -23988,7 +23990,7 @@
       <c r="AD692" s="3"/>
       <c r="AE692" s="3"/>
     </row>
-    <row r="693" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -24021,7 +24023,7 @@
       <c r="AD693" s="3"/>
       <c r="AE693" s="3"/>
     </row>
-    <row r="694" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -24054,7 +24056,7 @@
       <c r="AD694" s="3"/>
       <c r="AE694" s="3"/>
     </row>
-    <row r="695" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -24087,7 +24089,7 @@
       <c r="AD695" s="3"/>
       <c r="AE695" s="3"/>
     </row>
-    <row r="696" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -24120,7 +24122,7 @@
       <c r="AD696" s="3"/>
       <c r="AE696" s="3"/>
     </row>
-    <row r="697" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -24153,7 +24155,7 @@
       <c r="AD697" s="3"/>
       <c r="AE697" s="3"/>
     </row>
-    <row r="698" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -24186,7 +24188,7 @@
       <c r="AD698" s="3"/>
       <c r="AE698" s="3"/>
     </row>
-    <row r="699" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -24219,7 +24221,7 @@
       <c r="AD699" s="3"/>
       <c r="AE699" s="3"/>
     </row>
-    <row r="700" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -24252,7 +24254,7 @@
       <c r="AD700" s="3"/>
       <c r="AE700" s="3"/>
     </row>
-    <row r="701" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -24285,7 +24287,7 @@
       <c r="AD701" s="3"/>
       <c r="AE701" s="3"/>
     </row>
-    <row r="702" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -24318,7 +24320,7 @@
       <c r="AD702" s="3"/>
       <c r="AE702" s="3"/>
     </row>
-    <row r="703" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -24351,7 +24353,7 @@
       <c r="AD703" s="3"/>
       <c r="AE703" s="3"/>
     </row>
-    <row r="704" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -24384,7 +24386,7 @@
       <c r="AD704" s="3"/>
       <c r="AE704" s="3"/>
     </row>
-    <row r="705" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -24417,7 +24419,7 @@
       <c r="AD705" s="3"/>
       <c r="AE705" s="3"/>
     </row>
-    <row r="706" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -24450,7 +24452,7 @@
       <c r="AD706" s="3"/>
       <c r="AE706" s="3"/>
     </row>
-    <row r="707" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -24483,7 +24485,7 @@
       <c r="AD707" s="3"/>
       <c r="AE707" s="3"/>
     </row>
-    <row r="708" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -24516,7 +24518,7 @@
       <c r="AD708" s="3"/>
       <c r="AE708" s="3"/>
     </row>
-    <row r="709" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -24549,7 +24551,7 @@
       <c r="AD709" s="3"/>
       <c r="AE709" s="3"/>
     </row>
-    <row r="710" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -24582,7 +24584,7 @@
       <c r="AD710" s="3"/>
       <c r="AE710" s="3"/>
     </row>
-    <row r="711" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -24615,7 +24617,7 @@
       <c r="AD711" s="3"/>
       <c r="AE711" s="3"/>
     </row>
-    <row r="712" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -24648,7 +24650,7 @@
       <c r="AD712" s="3"/>
       <c r="AE712" s="3"/>
     </row>
-    <row r="713" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -24681,7 +24683,7 @@
       <c r="AD713" s="3"/>
       <c r="AE713" s="3"/>
     </row>
-    <row r="714" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -24714,7 +24716,7 @@
       <c r="AD714" s="3"/>
       <c r="AE714" s="3"/>
     </row>
-    <row r="715" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -24747,7 +24749,7 @@
       <c r="AD715" s="3"/>
       <c r="AE715" s="3"/>
     </row>
-    <row r="716" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -24780,7 +24782,7 @@
       <c r="AD716" s="3"/>
       <c r="AE716" s="3"/>
     </row>
-    <row r="717" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -24813,7 +24815,7 @@
       <c r="AD717" s="3"/>
       <c r="AE717" s="3"/>
     </row>
-    <row r="718" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -24846,7 +24848,7 @@
       <c r="AD718" s="3"/>
       <c r="AE718" s="3"/>
     </row>
-    <row r="719" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -24879,7 +24881,7 @@
       <c r="AD719" s="3"/>
       <c r="AE719" s="3"/>
     </row>
-    <row r="720" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -24912,7 +24914,7 @@
       <c r="AD720" s="3"/>
       <c r="AE720" s="3"/>
     </row>
-    <row r="721" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -24945,7 +24947,7 @@
       <c r="AD721" s="3"/>
       <c r="AE721" s="3"/>
     </row>
-    <row r="722" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -24978,7 +24980,7 @@
       <c r="AD722" s="3"/>
       <c r="AE722" s="3"/>
     </row>
-    <row r="723" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -25011,7 +25013,7 @@
       <c r="AD723" s="3"/>
       <c r="AE723" s="3"/>
     </row>
-    <row r="724" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -25044,7 +25046,7 @@
       <c r="AD724" s="3"/>
       <c r="AE724" s="3"/>
     </row>
-    <row r="725" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -25077,7 +25079,7 @@
       <c r="AD725" s="3"/>
       <c r="AE725" s="3"/>
     </row>
-    <row r="726" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -25110,7 +25112,7 @@
       <c r="AD726" s="3"/>
       <c r="AE726" s="3"/>
     </row>
-    <row r="727" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -25143,7 +25145,7 @@
       <c r="AD727" s="3"/>
       <c r="AE727" s="3"/>
     </row>
-    <row r="728" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -25176,7 +25178,7 @@
       <c r="AD728" s="3"/>
       <c r="AE728" s="3"/>
     </row>
-    <row r="729" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -25209,7 +25211,7 @@
       <c r="AD729" s="3"/>
       <c r="AE729" s="3"/>
     </row>
-    <row r="730" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -25242,7 +25244,7 @@
       <c r="AD730" s="3"/>
       <c r="AE730" s="3"/>
     </row>
-    <row r="731" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -25275,7 +25277,7 @@
       <c r="AD731" s="3"/>
       <c r="AE731" s="3"/>
     </row>
-    <row r="732" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -25308,7 +25310,7 @@
       <c r="AD732" s="3"/>
       <c r="AE732" s="3"/>
     </row>
-    <row r="733" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -25341,7 +25343,7 @@
       <c r="AD733" s="3"/>
       <c r="AE733" s="3"/>
     </row>
-    <row r="734" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -25374,7 +25376,7 @@
       <c r="AD734" s="3"/>
       <c r="AE734" s="3"/>
     </row>
-    <row r="735" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -25407,7 +25409,7 @@
       <c r="AD735" s="3"/>
       <c r="AE735" s="3"/>
     </row>
-    <row r="736" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -25440,7 +25442,7 @@
       <c r="AD736" s="3"/>
       <c r="AE736" s="3"/>
     </row>
-    <row r="737" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -25473,7 +25475,7 @@
       <c r="AD737" s="3"/>
       <c r="AE737" s="3"/>
     </row>
-    <row r="738" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -25506,7 +25508,7 @@
       <c r="AD738" s="3"/>
       <c r="AE738" s="3"/>
     </row>
-    <row r="739" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -25539,7 +25541,7 @@
       <c r="AD739" s="3"/>
       <c r="AE739" s="3"/>
     </row>
-    <row r="740" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -25572,7 +25574,7 @@
       <c r="AD740" s="3"/>
       <c r="AE740" s="3"/>
     </row>
-    <row r="741" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -25605,7 +25607,7 @@
       <c r="AD741" s="3"/>
       <c r="AE741" s="3"/>
     </row>
-    <row r="742" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -25638,7 +25640,7 @@
       <c r="AD742" s="3"/>
       <c r="AE742" s="3"/>
     </row>
-    <row r="743" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -25671,7 +25673,7 @@
       <c r="AD743" s="3"/>
       <c r="AE743" s="3"/>
     </row>
-    <row r="744" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -25704,7 +25706,7 @@
       <c r="AD744" s="3"/>
       <c r="AE744" s="3"/>
     </row>
-    <row r="745" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -25737,7 +25739,7 @@
       <c r="AD745" s="3"/>
       <c r="AE745" s="3"/>
     </row>
-    <row r="746" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -25770,7 +25772,7 @@
       <c r="AD746" s="3"/>
       <c r="AE746" s="3"/>
     </row>
-    <row r="747" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -25803,7 +25805,7 @@
       <c r="AD747" s="3"/>
       <c r="AE747" s="3"/>
     </row>
-    <row r="748" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -25836,7 +25838,7 @@
       <c r="AD748" s="3"/>
       <c r="AE748" s="3"/>
     </row>
-    <row r="749" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -25869,7 +25871,7 @@
       <c r="AD749" s="3"/>
       <c r="AE749" s="3"/>
     </row>
-    <row r="750" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -25902,7 +25904,7 @@
       <c r="AD750" s="3"/>
       <c r="AE750" s="3"/>
     </row>
-    <row r="751" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -25935,7 +25937,7 @@
       <c r="AD751" s="3"/>
       <c r="AE751" s="3"/>
     </row>
-    <row r="752" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -25968,7 +25970,7 @@
       <c r="AD752" s="3"/>
       <c r="AE752" s="3"/>
     </row>
-    <row r="753" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -26001,7 +26003,7 @@
       <c r="AD753" s="3"/>
       <c r="AE753" s="3"/>
     </row>
-    <row r="754" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -26034,7 +26036,7 @@
       <c r="AD754" s="3"/>
       <c r="AE754" s="3"/>
     </row>
-    <row r="755" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -26067,7 +26069,7 @@
       <c r="AD755" s="3"/>
       <c r="AE755" s="3"/>
     </row>
-    <row r="756" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -26100,7 +26102,7 @@
       <c r="AD756" s="3"/>
       <c r="AE756" s="3"/>
     </row>
-    <row r="757" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -26133,7 +26135,7 @@
       <c r="AD757" s="3"/>
       <c r="AE757" s="3"/>
     </row>
-    <row r="758" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -26166,7 +26168,7 @@
       <c r="AD758" s="3"/>
       <c r="AE758" s="3"/>
     </row>
-    <row r="759" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -26199,7 +26201,7 @@
       <c r="AD759" s="3"/>
       <c r="AE759" s="3"/>
     </row>
-    <row r="760" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -26232,7 +26234,7 @@
       <c r="AD760" s="3"/>
       <c r="AE760" s="3"/>
     </row>
-    <row r="761" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -26265,7 +26267,7 @@
       <c r="AD761" s="3"/>
       <c r="AE761" s="3"/>
     </row>
-    <row r="762" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -26298,7 +26300,7 @@
       <c r="AD762" s="3"/>
       <c r="AE762" s="3"/>
     </row>
-    <row r="763" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -26331,7 +26333,7 @@
       <c r="AD763" s="3"/>
       <c r="AE763" s="3"/>
     </row>
-    <row r="764" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -26364,7 +26366,7 @@
       <c r="AD764" s="3"/>
       <c r="AE764" s="3"/>
     </row>
-    <row r="765" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -26397,7 +26399,7 @@
       <c r="AD765" s="3"/>
       <c r="AE765" s="3"/>
     </row>
-    <row r="766" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -26430,7 +26432,7 @@
       <c r="AD766" s="3"/>
       <c r="AE766" s="3"/>
     </row>
-    <row r="767" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -26463,7 +26465,7 @@
       <c r="AD767" s="3"/>
       <c r="AE767" s="3"/>
     </row>
-    <row r="768" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -26496,7 +26498,7 @@
       <c r="AD768" s="3"/>
       <c r="AE768" s="3"/>
     </row>
-    <row r="769" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -26529,7 +26531,7 @@
       <c r="AD769" s="3"/>
       <c r="AE769" s="3"/>
     </row>
-    <row r="770" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -26562,7 +26564,7 @@
       <c r="AD770" s="3"/>
       <c r="AE770" s="3"/>
     </row>
-    <row r="771" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -26595,7 +26597,7 @@
       <c r="AD771" s="3"/>
       <c r="AE771" s="3"/>
     </row>
-    <row r="772" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -26628,7 +26630,7 @@
       <c r="AD772" s="3"/>
       <c r="AE772" s="3"/>
     </row>
-    <row r="773" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -26661,7 +26663,7 @@
       <c r="AD773" s="3"/>
       <c r="AE773" s="3"/>
     </row>
-    <row r="774" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -26694,7 +26696,7 @@
       <c r="AD774" s="3"/>
       <c r="AE774" s="3"/>
     </row>
-    <row r="775" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -26727,7 +26729,7 @@
       <c r="AD775" s="3"/>
       <c r="AE775" s="3"/>
     </row>
-    <row r="776" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -26760,7 +26762,7 @@
       <c r="AD776" s="3"/>
       <c r="AE776" s="3"/>
     </row>
-    <row r="777" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -26793,7 +26795,7 @@
       <c r="AD777" s="3"/>
       <c r="AE777" s="3"/>
     </row>
-    <row r="778" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -26826,7 +26828,7 @@
       <c r="AD778" s="3"/>
       <c r="AE778" s="3"/>
     </row>
-    <row r="779" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -26859,7 +26861,7 @@
       <c r="AD779" s="3"/>
       <c r="AE779" s="3"/>
     </row>
-    <row r="780" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -26892,7 +26894,7 @@
       <c r="AD780" s="3"/>
       <c r="AE780" s="3"/>
     </row>
-    <row r="781" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -26925,7 +26927,7 @@
       <c r="AD781" s="3"/>
       <c r="AE781" s="3"/>
     </row>
-    <row r="782" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -26958,7 +26960,7 @@
       <c r="AD782" s="3"/>
       <c r="AE782" s="3"/>
     </row>
-    <row r="783" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -26991,7 +26993,7 @@
       <c r="AD783" s="3"/>
       <c r="AE783" s="3"/>
     </row>
-    <row r="784" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -27024,7 +27026,7 @@
       <c r="AD784" s="3"/>
       <c r="AE784" s="3"/>
     </row>
-    <row r="785" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -27057,7 +27059,7 @@
       <c r="AD785" s="3"/>
       <c r="AE785" s="3"/>
     </row>
-    <row r="786" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -27090,7 +27092,7 @@
       <c r="AD786" s="3"/>
       <c r="AE786" s="3"/>
     </row>
-    <row r="787" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -27123,7 +27125,7 @@
       <c r="AD787" s="3"/>
       <c r="AE787" s="3"/>
     </row>
-    <row r="788" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -27156,7 +27158,7 @@
       <c r="AD788" s="3"/>
       <c r="AE788" s="3"/>
     </row>
-    <row r="789" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -27189,7 +27191,7 @@
       <c r="AD789" s="3"/>
       <c r="AE789" s="3"/>
     </row>
-    <row r="790" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -27222,7 +27224,7 @@
       <c r="AD790" s="3"/>
       <c r="AE790" s="3"/>
     </row>
-    <row r="791" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -27255,7 +27257,7 @@
       <c r="AD791" s="3"/>
       <c r="AE791" s="3"/>
     </row>
-    <row r="792" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -27288,7 +27290,7 @@
       <c r="AD792" s="3"/>
       <c r="AE792" s="3"/>
     </row>
-    <row r="793" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -27321,7 +27323,7 @@
       <c r="AD793" s="3"/>
       <c r="AE793" s="3"/>
     </row>
-    <row r="794" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -27354,7 +27356,7 @@
       <c r="AD794" s="3"/>
       <c r="AE794" s="3"/>
     </row>
-    <row r="795" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -27387,7 +27389,7 @@
       <c r="AD795" s="3"/>
       <c r="AE795" s="3"/>
     </row>
-    <row r="796" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -27420,7 +27422,7 @@
       <c r="AD796" s="3"/>
       <c r="AE796" s="3"/>
     </row>
-    <row r="797" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -27453,7 +27455,7 @@
       <c r="AD797" s="3"/>
       <c r="AE797" s="3"/>
     </row>
-    <row r="798" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -27486,7 +27488,7 @@
       <c r="AD798" s="3"/>
       <c r="AE798" s="3"/>
     </row>
-    <row r="799" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -27519,7 +27521,7 @@
       <c r="AD799" s="3"/>
       <c r="AE799" s="3"/>
     </row>
-    <row r="800" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -27552,7 +27554,7 @@
       <c r="AD800" s="3"/>
       <c r="AE800" s="3"/>
     </row>
-    <row r="801" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -27585,7 +27587,7 @@
       <c r="AD801" s="3"/>
       <c r="AE801" s="3"/>
     </row>
-    <row r="802" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -27618,7 +27620,7 @@
       <c r="AD802" s="3"/>
       <c r="AE802" s="3"/>
     </row>
-    <row r="803" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -27651,7 +27653,7 @@
       <c r="AD803" s="3"/>
       <c r="AE803" s="3"/>
     </row>
-    <row r="804" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -27684,7 +27686,7 @@
       <c r="AD804" s="3"/>
       <c r="AE804" s="3"/>
     </row>
-    <row r="805" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -27717,7 +27719,7 @@
       <c r="AD805" s="3"/>
       <c r="AE805" s="3"/>
     </row>
-    <row r="806" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -27750,7 +27752,7 @@
       <c r="AD806" s="3"/>
       <c r="AE806" s="3"/>
     </row>
-    <row r="807" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -27783,7 +27785,7 @@
       <c r="AD807" s="3"/>
       <c r="AE807" s="3"/>
     </row>
-    <row r="808" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -27816,7 +27818,7 @@
       <c r="AD808" s="3"/>
       <c r="AE808" s="3"/>
     </row>
-    <row r="809" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -27849,7 +27851,7 @@
       <c r="AD809" s="3"/>
       <c r="AE809" s="3"/>
     </row>
-    <row r="810" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -27882,7 +27884,7 @@
       <c r="AD810" s="3"/>
       <c r="AE810" s="3"/>
     </row>
-    <row r="811" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -27915,7 +27917,7 @@
       <c r="AD811" s="3"/>
       <c r="AE811" s="3"/>
     </row>
-    <row r="812" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -27948,7 +27950,7 @@
       <c r="AD812" s="3"/>
       <c r="AE812" s="3"/>
     </row>
-    <row r="813" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -27981,7 +27983,7 @@
       <c r="AD813" s="3"/>
       <c r="AE813" s="3"/>
     </row>
-    <row r="814" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -28014,7 +28016,7 @@
       <c r="AD814" s="3"/>
       <c r="AE814" s="3"/>
     </row>
-    <row r="815" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -28047,7 +28049,7 @@
       <c r="AD815" s="3"/>
       <c r="AE815" s="3"/>
     </row>
-    <row r="816" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -28080,7 +28082,7 @@
       <c r="AD816" s="3"/>
       <c r="AE816" s="3"/>
     </row>
-    <row r="817" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -28113,7 +28115,7 @@
       <c r="AD817" s="3"/>
       <c r="AE817" s="3"/>
     </row>
-    <row r="818" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -28146,7 +28148,7 @@
       <c r="AD818" s="3"/>
       <c r="AE818" s="3"/>
     </row>
-    <row r="819" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -28179,7 +28181,7 @@
       <c r="AD819" s="3"/>
       <c r="AE819" s="3"/>
     </row>
-    <row r="820" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -28212,7 +28214,7 @@
       <c r="AD820" s="3"/>
       <c r="AE820" s="3"/>
     </row>
-    <row r="821" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -28245,7 +28247,7 @@
       <c r="AD821" s="3"/>
       <c r="AE821" s="3"/>
     </row>
-    <row r="822" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -28278,7 +28280,7 @@
       <c r="AD822" s="3"/>
       <c r="AE822" s="3"/>
     </row>
-    <row r="823" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -28311,7 +28313,7 @@
       <c r="AD823" s="3"/>
       <c r="AE823" s="3"/>
     </row>
-    <row r="824" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -28344,7 +28346,7 @@
       <c r="AD824" s="3"/>
       <c r="AE824" s="3"/>
     </row>
-    <row r="825" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -28377,7 +28379,7 @@
       <c r="AD825" s="3"/>
       <c r="AE825" s="3"/>
     </row>
-    <row r="826" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -28410,7 +28412,7 @@
       <c r="AD826" s="3"/>
       <c r="AE826" s="3"/>
     </row>
-    <row r="827" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -28443,7 +28445,7 @@
       <c r="AD827" s="3"/>
       <c r="AE827" s="3"/>
     </row>
-    <row r="828" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -28476,7 +28478,7 @@
       <c r="AD828" s="3"/>
       <c r="AE828" s="3"/>
     </row>
-    <row r="829" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -28509,7 +28511,7 @@
       <c r="AD829" s="3"/>
       <c r="AE829" s="3"/>
     </row>
-    <row r="830" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -28542,7 +28544,7 @@
       <c r="AD830" s="3"/>
       <c r="AE830" s="3"/>
     </row>
-    <row r="831" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -28575,7 +28577,7 @@
       <c r="AD831" s="3"/>
       <c r="AE831" s="3"/>
     </row>
-    <row r="832" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -28608,7 +28610,7 @@
       <c r="AD832" s="3"/>
       <c r="AE832" s="3"/>
     </row>
-    <row r="833" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -28641,7 +28643,7 @@
       <c r="AD833" s="3"/>
       <c r="AE833" s="3"/>
     </row>
-    <row r="834" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -28674,7 +28676,7 @@
       <c r="AD834" s="3"/>
       <c r="AE834" s="3"/>
     </row>
-    <row r="835" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -28707,7 +28709,7 @@
       <c r="AD835" s="3"/>
       <c r="AE835" s="3"/>
     </row>
-    <row r="836" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -28740,7 +28742,7 @@
       <c r="AD836" s="3"/>
       <c r="AE836" s="3"/>
     </row>
-    <row r="837" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -28773,7 +28775,7 @@
       <c r="AD837" s="3"/>
       <c r="AE837" s="3"/>
     </row>
-    <row r="838" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -28806,7 +28808,7 @@
       <c r="AD838" s="3"/>
       <c r="AE838" s="3"/>
     </row>
-    <row r="839" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -28839,7 +28841,7 @@
       <c r="AD839" s="3"/>
       <c r="AE839" s="3"/>
     </row>
-    <row r="840" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -28872,7 +28874,7 @@
       <c r="AD840" s="3"/>
       <c r="AE840" s="3"/>
     </row>
-    <row r="841" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -28905,7 +28907,7 @@
       <c r="AD841" s="3"/>
       <c r="AE841" s="3"/>
     </row>
-    <row r="842" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -28938,7 +28940,7 @@
       <c r="AD842" s="3"/>
       <c r="AE842" s="3"/>
     </row>
-    <row r="843" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -28971,7 +28973,7 @@
       <c r="AD843" s="3"/>
       <c r="AE843" s="3"/>
     </row>
-    <row r="844" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -29004,7 +29006,7 @@
       <c r="AD844" s="3"/>
       <c r="AE844" s="3"/>
     </row>
-    <row r="845" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -29037,7 +29039,7 @@
       <c r="AD845" s="3"/>
       <c r="AE845" s="3"/>
     </row>
-    <row r="846" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -29070,7 +29072,7 @@
       <c r="AD846" s="3"/>
       <c r="AE846" s="3"/>
     </row>
-    <row r="847" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -29103,7 +29105,7 @@
       <c r="AD847" s="3"/>
       <c r="AE847" s="3"/>
     </row>
-    <row r="848" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -29136,7 +29138,7 @@
       <c r="AD848" s="3"/>
       <c r="AE848" s="3"/>
     </row>
-    <row r="849" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -29169,7 +29171,7 @@
       <c r="AD849" s="3"/>
       <c r="AE849" s="3"/>
     </row>
-    <row r="850" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -29202,7 +29204,7 @@
       <c r="AD850" s="3"/>
       <c r="AE850" s="3"/>
     </row>
-    <row r="851" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -29235,7 +29237,7 @@
       <c r="AD851" s="3"/>
       <c r="AE851" s="3"/>
     </row>
-    <row r="852" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -29268,7 +29270,7 @@
       <c r="AD852" s="3"/>
       <c r="AE852" s="3"/>
     </row>
-    <row r="853" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -29301,7 +29303,7 @@
       <c r="AD853" s="3"/>
       <c r="AE853" s="3"/>
     </row>
-    <row r="854" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -29334,7 +29336,7 @@
       <c r="AD854" s="3"/>
       <c r="AE854" s="3"/>
     </row>
-    <row r="855" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -29367,7 +29369,7 @@
       <c r="AD855" s="3"/>
       <c r="AE855" s="3"/>
     </row>
-    <row r="856" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -29400,7 +29402,7 @@
       <c r="AD856" s="3"/>
       <c r="AE856" s="3"/>
     </row>
-    <row r="857" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -29433,7 +29435,7 @@
       <c r="AD857" s="3"/>
       <c r="AE857" s="3"/>
     </row>
-    <row r="858" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -29466,7 +29468,7 @@
       <c r="AD858" s="3"/>
       <c r="AE858" s="3"/>
     </row>
-    <row r="859" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -29499,7 +29501,7 @@
       <c r="AD859" s="3"/>
       <c r="AE859" s="3"/>
     </row>
-    <row r="860" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -29532,7 +29534,7 @@
       <c r="AD860" s="3"/>
       <c r="AE860" s="3"/>
     </row>
-    <row r="861" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -29565,7 +29567,7 @@
       <c r="AD861" s="3"/>
       <c r="AE861" s="3"/>
     </row>
-    <row r="862" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -29598,7 +29600,7 @@
       <c r="AD862" s="3"/>
       <c r="AE862" s="3"/>
     </row>
-    <row r="863" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -29631,7 +29633,7 @@
       <c r="AD863" s="3"/>
       <c r="AE863" s="3"/>
     </row>
-    <row r="864" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -29664,7 +29666,7 @@
       <c r="AD864" s="3"/>
       <c r="AE864" s="3"/>
     </row>
-    <row r="865" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -29697,7 +29699,7 @@
       <c r="AD865" s="3"/>
       <c r="AE865" s="3"/>
     </row>
-    <row r="866" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -29730,7 +29732,7 @@
       <c r="AD866" s="3"/>
       <c r="AE866" s="3"/>
     </row>
-    <row r="867" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -29763,7 +29765,7 @@
       <c r="AD867" s="3"/>
       <c r="AE867" s="3"/>
     </row>
-    <row r="868" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -29796,7 +29798,7 @@
       <c r="AD868" s="3"/>
       <c r="AE868" s="3"/>
     </row>
-    <row r="869" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -29829,7 +29831,7 @@
       <c r="AD869" s="3"/>
       <c r="AE869" s="3"/>
     </row>
-    <row r="870" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -29862,7 +29864,7 @@
       <c r="AD870" s="3"/>
       <c r="AE870" s="3"/>
     </row>
-    <row r="871" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -29895,7 +29897,7 @@
       <c r="AD871" s="3"/>
       <c r="AE871" s="3"/>
     </row>
-    <row r="872" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -29928,7 +29930,7 @@
       <c r="AD872" s="3"/>
       <c r="AE872" s="3"/>
     </row>
-    <row r="873" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -29961,7 +29963,7 @@
       <c r="AD873" s="3"/>
       <c r="AE873" s="3"/>
     </row>
-    <row r="874" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -29994,7 +29996,7 @@
       <c r="AD874" s="3"/>
       <c r="AE874" s="3"/>
     </row>
-    <row r="875" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -30027,7 +30029,7 @@
       <c r="AD875" s="3"/>
       <c r="AE875" s="3"/>
     </row>
-    <row r="876" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -30060,7 +30062,7 @@
       <c r="AD876" s="3"/>
       <c r="AE876" s="3"/>
     </row>
-    <row r="877" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -30093,7 +30095,7 @@
       <c r="AD877" s="3"/>
       <c r="AE877" s="3"/>
     </row>
-    <row r="878" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -30126,7 +30128,7 @@
       <c r="AD878" s="3"/>
       <c r="AE878" s="3"/>
     </row>
-    <row r="879" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -30159,7 +30161,7 @@
       <c r="AD879" s="3"/>
       <c r="AE879" s="3"/>
     </row>
-    <row r="880" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -30192,7 +30194,7 @@
       <c r="AD880" s="3"/>
       <c r="AE880" s="3"/>
     </row>
-    <row r="881" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -30225,7 +30227,7 @@
       <c r="AD881" s="3"/>
       <c r="AE881" s="3"/>
     </row>
-    <row r="882" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -30258,7 +30260,7 @@
       <c r="AD882" s="3"/>
       <c r="AE882" s="3"/>
     </row>
-    <row r="883" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -30291,7 +30293,7 @@
       <c r="AD883" s="3"/>
       <c r="AE883" s="3"/>
     </row>
-    <row r="884" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -30324,7 +30326,7 @@
       <c r="AD884" s="3"/>
       <c r="AE884" s="3"/>
     </row>
-    <row r="885" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -30357,7 +30359,7 @@
       <c r="AD885" s="3"/>
       <c r="AE885" s="3"/>
     </row>
-    <row r="886" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -30390,7 +30392,7 @@
       <c r="AD886" s="3"/>
       <c r="AE886" s="3"/>
     </row>
-    <row r="887" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -30423,7 +30425,7 @@
       <c r="AD887" s="3"/>
       <c r="AE887" s="3"/>
     </row>
-    <row r="888" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -30456,7 +30458,7 @@
       <c r="AD888" s="3"/>
       <c r="AE888" s="3"/>
     </row>
-    <row r="889" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -30489,7 +30491,7 @@
       <c r="AD889" s="3"/>
       <c r="AE889" s="3"/>
     </row>
-    <row r="890" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -30522,7 +30524,7 @@
       <c r="AD890" s="3"/>
       <c r="AE890" s="3"/>
     </row>
-    <row r="891" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -30555,7 +30557,7 @@
       <c r="AD891" s="3"/>
       <c r="AE891" s="3"/>
     </row>
-    <row r="892" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -30588,7 +30590,7 @@
       <c r="AD892" s="3"/>
       <c r="AE892" s="3"/>
     </row>
-    <row r="893" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -30621,7 +30623,7 @@
       <c r="AD893" s="3"/>
       <c r="AE893" s="3"/>
     </row>
-    <row r="894" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -30654,7 +30656,7 @@
       <c r="AD894" s="3"/>
       <c r="AE894" s="3"/>
     </row>
-    <row r="895" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -30687,7 +30689,7 @@
       <c r="AD895" s="3"/>
       <c r="AE895" s="3"/>
     </row>
-    <row r="896" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -30720,7 +30722,7 @@
       <c r="AD896" s="3"/>
       <c r="AE896" s="3"/>
     </row>
-    <row r="897" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -30753,7 +30755,7 @@
       <c r="AD897" s="3"/>
       <c r="AE897" s="3"/>
     </row>
-    <row r="898" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -30786,7 +30788,7 @@
       <c r="AD898" s="3"/>
       <c r="AE898" s="3"/>
     </row>
-    <row r="899" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -30819,7 +30821,7 @@
       <c r="AD899" s="3"/>
       <c r="AE899" s="3"/>
     </row>
-    <row r="900" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -30852,7 +30854,7 @@
       <c r="AD900" s="3"/>
       <c r="AE900" s="3"/>
     </row>
-    <row r="901" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -30885,7 +30887,7 @@
       <c r="AD901" s="3"/>
       <c r="AE901" s="3"/>
     </row>
-    <row r="902" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -30918,7 +30920,7 @@
       <c r="AD902" s="3"/>
       <c r="AE902" s="3"/>
     </row>
-    <row r="903" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -30951,7 +30953,7 @@
       <c r="AD903" s="3"/>
       <c r="AE903" s="3"/>
     </row>
-    <row r="904" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -30984,7 +30986,7 @@
       <c r="AD904" s="3"/>
       <c r="AE904" s="3"/>
     </row>
-    <row r="905" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -31017,7 +31019,7 @@
       <c r="AD905" s="3"/>
       <c r="AE905" s="3"/>
     </row>
-    <row r="906" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -31050,7 +31052,7 @@
       <c r="AD906" s="3"/>
       <c r="AE906" s="3"/>
     </row>
-    <row r="907" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -31083,7 +31085,7 @@
       <c r="AD907" s="3"/>
       <c r="AE907" s="3"/>
     </row>
-    <row r="908" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -31116,7 +31118,7 @@
       <c r="AD908" s="3"/>
       <c r="AE908" s="3"/>
     </row>
-    <row r="909" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -31149,7 +31151,7 @@
       <c r="AD909" s="3"/>
       <c r="AE909" s="3"/>
     </row>
-    <row r="910" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -31182,7 +31184,7 @@
       <c r="AD910" s="3"/>
       <c r="AE910" s="3"/>
     </row>
-    <row r="911" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -31215,7 +31217,7 @@
       <c r="AD911" s="3"/>
       <c r="AE911" s="3"/>
     </row>
-    <row r="912" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -31248,7 +31250,7 @@
       <c r="AD912" s="3"/>
       <c r="AE912" s="3"/>
     </row>
-    <row r="913" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -31281,7 +31283,7 @@
       <c r="AD913" s="3"/>
       <c r="AE913" s="3"/>
     </row>
-    <row r="914" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -31314,7 +31316,7 @@
       <c r="AD914" s="3"/>
       <c r="AE914" s="3"/>
     </row>
-    <row r="915" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -31347,7 +31349,7 @@
       <c r="AD915" s="3"/>
       <c r="AE915" s="3"/>
     </row>
-    <row r="916" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -31380,7 +31382,7 @@
       <c r="AD916" s="3"/>
       <c r="AE916" s="3"/>
     </row>
-    <row r="917" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -31413,7 +31415,7 @@
       <c r="AD917" s="3"/>
       <c r="AE917" s="3"/>
     </row>
-    <row r="918" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -31446,7 +31448,7 @@
       <c r="AD918" s="3"/>
       <c r="AE918" s="3"/>
     </row>
-    <row r="919" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -31479,7 +31481,7 @@
       <c r="AD919" s="3"/>
       <c r="AE919" s="3"/>
     </row>
-    <row r="920" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -31512,7 +31514,7 @@
       <c r="AD920" s="3"/>
       <c r="AE920" s="3"/>
     </row>
-    <row r="921" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -31545,7 +31547,7 @@
       <c r="AD921" s="3"/>
       <c r="AE921" s="3"/>
     </row>
-    <row r="922" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -31578,7 +31580,7 @@
       <c r="AD922" s="3"/>
       <c r="AE922" s="3"/>
     </row>
-    <row r="923" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -31611,7 +31613,7 @@
       <c r="AD923" s="3"/>
       <c r="AE923" s="3"/>
     </row>
-    <row r="924" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -31644,7 +31646,7 @@
       <c r="AD924" s="3"/>
       <c r="AE924" s="3"/>
     </row>
-    <row r="925" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -31677,7 +31679,7 @@
       <c r="AD925" s="3"/>
       <c r="AE925" s="3"/>
     </row>
-    <row r="926" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -31710,7 +31712,7 @@
       <c r="AD926" s="3"/>
       <c r="AE926" s="3"/>
     </row>
-    <row r="927" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -31743,7 +31745,7 @@
       <c r="AD927" s="3"/>
       <c r="AE927" s="3"/>
     </row>
-    <row r="928" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -31776,7 +31778,7 @@
       <c r="AD928" s="3"/>
       <c r="AE928" s="3"/>
     </row>
-    <row r="929" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -31809,7 +31811,7 @@
       <c r="AD929" s="3"/>
       <c r="AE929" s="3"/>
     </row>
-    <row r="930" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -31842,7 +31844,7 @@
       <c r="AD930" s="3"/>
       <c r="AE930" s="3"/>
     </row>
-    <row r="931" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -31875,7 +31877,7 @@
       <c r="AD931" s="3"/>
       <c r="AE931" s="3"/>
     </row>
-    <row r="932" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -31908,7 +31910,7 @@
       <c r="AD932" s="3"/>
       <c r="AE932" s="3"/>
     </row>
-    <row r="933" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -31941,7 +31943,7 @@
       <c r="AD933" s="3"/>
       <c r="AE933" s="3"/>
     </row>
-    <row r="934" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -31974,7 +31976,7 @@
       <c r="AD934" s="3"/>
       <c r="AE934" s="3"/>
     </row>
-    <row r="935" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -32007,7 +32009,7 @@
       <c r="AD935" s="3"/>
       <c r="AE935" s="3"/>
     </row>
-    <row r="936" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -32040,7 +32042,7 @@
       <c r="AD936" s="3"/>
       <c r="AE936" s="3"/>
     </row>
-    <row r="937" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -32073,7 +32075,7 @@
       <c r="AD937" s="3"/>
       <c r="AE937" s="3"/>
     </row>
-    <row r="938" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -32106,7 +32108,7 @@
       <c r="AD938" s="3"/>
       <c r="AE938" s="3"/>
     </row>
-    <row r="939" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -32139,7 +32141,7 @@
       <c r="AD939" s="3"/>
       <c r="AE939" s="3"/>
     </row>
-    <row r="940" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -32172,7 +32174,7 @@
       <c r="AD940" s="3"/>
       <c r="AE940" s="3"/>
     </row>
-    <row r="941" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -32205,7 +32207,7 @@
       <c r="AD941" s="3"/>
       <c r="AE941" s="3"/>
     </row>
-    <row r="942" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -32238,7 +32240,7 @@
       <c r="AD942" s="3"/>
       <c r="AE942" s="3"/>
     </row>
-    <row r="943" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -32271,7 +32273,7 @@
       <c r="AD943" s="3"/>
       <c r="AE943" s="3"/>
     </row>
-    <row r="944" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -32304,7 +32306,7 @@
       <c r="AD944" s="3"/>
       <c r="AE944" s="3"/>
     </row>
-    <row r="945" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -32337,7 +32339,7 @@
       <c r="AD945" s="3"/>
       <c r="AE945" s="3"/>
     </row>
-    <row r="946" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -32370,7 +32372,7 @@
       <c r="AD946" s="3"/>
       <c r="AE946" s="3"/>
     </row>
-    <row r="947" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -32403,7 +32405,7 @@
       <c r="AD947" s="3"/>
       <c r="AE947" s="3"/>
     </row>
-    <row r="948" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -32436,7 +32438,7 @@
       <c r="AD948" s="3"/>
       <c r="AE948" s="3"/>
     </row>
-    <row r="949" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -32469,7 +32471,7 @@
       <c r="AD949" s="3"/>
       <c r="AE949" s="3"/>
     </row>
-    <row r="950" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -32502,7 +32504,7 @@
       <c r="AD950" s="3"/>
       <c r="AE950" s="3"/>
     </row>
-    <row r="951" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -32535,7 +32537,7 @@
       <c r="AD951" s="3"/>
       <c r="AE951" s="3"/>
     </row>
-    <row r="952" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -32568,7 +32570,7 @@
       <c r="AD952" s="3"/>
       <c r="AE952" s="3"/>
     </row>
-    <row r="953" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -32601,7 +32603,7 @@
       <c r="AD953" s="3"/>
       <c r="AE953" s="3"/>
     </row>
-    <row r="954" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -32634,7 +32636,7 @@
       <c r="AD954" s="3"/>
       <c r="AE954" s="3"/>
     </row>
-    <row r="955" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -32667,7 +32669,7 @@
       <c r="AD955" s="3"/>
       <c r="AE955" s="3"/>
     </row>
-    <row r="956" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -32700,7 +32702,7 @@
       <c r="AD956" s="3"/>
       <c r="AE956" s="3"/>
     </row>
-    <row r="957" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -32733,7 +32735,7 @@
       <c r="AD957" s="3"/>
       <c r="AE957" s="3"/>
     </row>
-    <row r="958" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -32766,7 +32768,7 @@
       <c r="AD958" s="3"/>
       <c r="AE958" s="3"/>
     </row>
-    <row r="959" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -32799,7 +32801,7 @@
       <c r="AD959" s="3"/>
       <c r="AE959" s="3"/>
     </row>
-    <row r="960" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -32832,7 +32834,7 @@
       <c r="AD960" s="3"/>
       <c r="AE960" s="3"/>
     </row>
-    <row r="961" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -32865,7 +32867,7 @@
       <c r="AD961" s="3"/>
       <c r="AE961" s="3"/>
     </row>
-    <row r="962" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -32898,7 +32900,7 @@
       <c r="AD962" s="3"/>
       <c r="AE962" s="3"/>
     </row>
-    <row r="963" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -32931,7 +32933,7 @@
       <c r="AD963" s="3"/>
       <c r="AE963" s="3"/>
     </row>
-    <row r="964" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -32964,7 +32966,7 @@
       <c r="AD964" s="3"/>
       <c r="AE964" s="3"/>
     </row>
-    <row r="965" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -32997,7 +32999,7 @@
       <c r="AD965" s="3"/>
       <c r="AE965" s="3"/>
     </row>
-    <row r="966" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -33030,7 +33032,7 @@
       <c r="AD966" s="3"/>
       <c r="AE966" s="3"/>
     </row>
-    <row r="967" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -33063,7 +33065,7 @@
       <c r="AD967" s="3"/>
       <c r="AE967" s="3"/>
     </row>
-    <row r="968" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -33096,7 +33098,7 @@
       <c r="AD968" s="3"/>
       <c r="AE968" s="3"/>
     </row>
-    <row r="969" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -33129,7 +33131,7 @@
       <c r="AD969" s="3"/>
       <c r="AE969" s="3"/>
     </row>
-    <row r="970" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -33162,7 +33164,7 @@
       <c r="AD970" s="3"/>
       <c r="AE970" s="3"/>
     </row>
-    <row r="971" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -33195,7 +33197,7 @@
       <c r="AD971" s="3"/>
       <c r="AE971" s="3"/>
     </row>
-    <row r="972" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -33228,7 +33230,7 @@
       <c r="AD972" s="3"/>
       <c r="AE972" s="3"/>
     </row>
-    <row r="973" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -33261,7 +33263,7 @@
       <c r="AD973" s="3"/>
       <c r="AE973" s="3"/>
     </row>
-    <row r="974" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -33294,7 +33296,7 @@
       <c r="AD974" s="3"/>
       <c r="AE974" s="3"/>
     </row>
-    <row r="975" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -33327,7 +33329,7 @@
       <c r="AD975" s="3"/>
       <c r="AE975" s="3"/>
     </row>
-    <row r="976" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -33360,7 +33362,7 @@
       <c r="AD976" s="3"/>
       <c r="AE976" s="3"/>
     </row>
-    <row r="977" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -33393,7 +33395,7 @@
       <c r="AD977" s="3"/>
       <c r="AE977" s="3"/>
     </row>
-    <row r="978" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -33426,7 +33428,7 @@
       <c r="AD978" s="3"/>
       <c r="AE978" s="3"/>
     </row>
-    <row r="979" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -33459,7 +33461,7 @@
       <c r="AD979" s="3"/>
       <c r="AE979" s="3"/>
     </row>
-    <row r="980" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -33492,7 +33494,7 @@
       <c r="AD980" s="3"/>
       <c r="AE980" s="3"/>
     </row>
-    <row r="981" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -33525,7 +33527,7 @@
       <c r="AD981" s="3"/>
       <c r="AE981" s="3"/>
     </row>
-    <row r="982" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -33558,7 +33560,7 @@
       <c r="AD982" s="3"/>
       <c r="AE982" s="3"/>
     </row>
-    <row r="983" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -33591,7 +33593,7 @@
       <c r="AD983" s="3"/>
       <c r="AE983" s="3"/>
     </row>
-    <row r="984" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -33624,7 +33626,7 @@
       <c r="AD984" s="3"/>
       <c r="AE984" s="3"/>
     </row>
-    <row r="985" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -33657,7 +33659,7 @@
       <c r="AD985" s="3"/>
       <c r="AE985" s="3"/>
     </row>
-    <row r="986" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -33690,7 +33692,7 @@
       <c r="AD986" s="3"/>
       <c r="AE986" s="3"/>
     </row>
-    <row r="987" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -33723,7 +33725,7 @@
       <c r="AD987" s="3"/>
       <c r="AE987" s="3"/>
     </row>
-    <row r="988" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -33756,7 +33758,7 @@
       <c r="AD988" s="3"/>
       <c r="AE988" s="3"/>
     </row>
-    <row r="989" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -33789,7 +33791,7 @@
       <c r="AD989" s="3"/>
       <c r="AE989" s="3"/>
     </row>
-    <row r="990" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -33822,7 +33824,7 @@
       <c r="AD990" s="3"/>
       <c r="AE990" s="3"/>
     </row>
-    <row r="991" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -33855,7 +33857,7 @@
       <c r="AD991" s="3"/>
       <c r="AE991" s="3"/>
     </row>
-    <row r="992" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -33888,7 +33890,7 @@
       <c r="AD992" s="3"/>
       <c r="AE992" s="3"/>
     </row>
-    <row r="993" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -33921,7 +33923,7 @@
       <c r="AD993" s="3"/>
       <c r="AE993" s="3"/>
     </row>
-    <row r="994" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -33954,7 +33956,7 @@
       <c r="AD994" s="3"/>
       <c r="AE994" s="3"/>
     </row>
-    <row r="995" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -33987,7 +33989,7 @@
       <c r="AD995" s="3"/>
       <c r="AE995" s="3"/>
     </row>
-    <row r="996" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -34020,7 +34022,7 @@
       <c r="AD996" s="3"/>
       <c r="AE996" s="3"/>
     </row>
-    <row r="997" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -34053,7 +34055,7 @@
       <c r="AD997" s="3"/>
       <c r="AE997" s="3"/>
     </row>
-    <row r="998" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -34086,7 +34088,7 @@
       <c r="AD998" s="3"/>
       <c r="AE998" s="3"/>
     </row>
-    <row r="999" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -34119,7 +34121,7 @@
       <c r="AD999" s="3"/>
       <c r="AE999" s="3"/>
     </row>
-    <row r="1000" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -34162,15 +34164,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -34387,6 +34380,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -34394,14 +34396,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34416,6 +34410,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 1 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2024 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68FD45C-DC8D-4957-8BB1-2CA88D076E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3966176-52CE-48C4-BBE5-B33E17D14877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,12 +455,6 @@
     <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q1_2024_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q1_2024_Expenditures__c</t>
-  </si>
-  <si>
     <t>Project_Start_Date__c</t>
   </si>
   <si>
@@ -481,6 +475,12 @@
     <t>REQUIRED if the project has completed. 
 REQUIRED if you selected "Completed" for the "Status to Completion" question. 
 End date  Valid Date - (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>Q2_2024_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q2_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1057,10 @@
         <v>88</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -1072,10 +1072,10 @@
         <v>8</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>30</v>
@@ -1259,10 +1259,10 @@
         <v>89</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
@@ -1360,10 +1360,10 @@
         <v>91</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>78</v>
@@ -36200,6 +36200,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -36416,12 +36422,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -36432,6 +36432,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36450,23 +36467,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>

--- a/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/Quarter 3 2024 Project Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3966176-52CE-48C4-BBE5-B33E17D14877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F3966176-52CE-48C4-BBE5-B33E17D14877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F722DD-23D8-4682-BA12-BE217E749CCC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q2_2024_Obligations__c</t>
+    <t>Q3_2024_Obligations__c</t>
   </si>
   <si>
-    <t>Q2_2024_Expenditures__c</t>
+    <t>Q3_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -905,7 +905,7 @@
   <dimension ref="A1:AG1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36200,9 +36200,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36423,27 +36426,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36468,9 +36459,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project211214BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/Quarter 3 2024 Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 4 2024 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F3966176-52CE-48C4-BBE5-B33E17D14877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F722DD-23D8-4682-BA12-BE217E749CCC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F48EBF-5ACA-4030-9B55-9B2A7C886A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q3_2024_Obligations__c</t>
+    <t>Q4_2024_Obligations__c</t>
   </si>
   <si>
-    <t>Q3_2024_Expenditures__c</t>
+    <t>Q4_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -905,7 +905,7 @@
   <dimension ref="A1:AG1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36200,12 +36200,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36426,15 +36423,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36459,18 +36468,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>